--- a/surya_punctuation_5_26/surya_results_punctuation.xlsx
+++ b/surya_punctuation_5_26/surya_results_punctuation.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s71z662\Documents\Emergency\IZANAMI2\2_macroevolution\surya_punctuation_5_26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin Surya\Google Drive\Operation\IZANAMI\2_macroevolution\surya_punctuation_5_26\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A746FBBC-0BC4-4C3D-9753-A769496FC3BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
     <sheet name="results" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -318,7 +319,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -451,9 +452,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Surya, Kevin" id="{A4AD773A-94BB-479A-B1B7-F1633C8B31ED}" userId="Surya, Kevin" providerId="None"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -751,37 +750,20 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F18" dT="2020-05-07T02:06:54.41" personId="{A4AD773A-94BB-479A-B1B7-F1633C8B31ED}" id="{595A8741-3CB8-4DC6-86A0-2ECD1F9D334B}">
-    <text>This intercept value is nonsensical.</text>
-  </threadedComment>
-  <threadedComment ref="F19" dT="2020-05-07T02:09:40.21" personId="{A4AD773A-94BB-479A-B1B7-F1633C8B31ED}" id="{4992A8AF-FFDD-4965-952F-230D2384B795}">
-    <text>This intercept value is nonsensical.</text>
-  </threadedComment>
-  <threadedComment ref="F20" dT="2020-05-09T21:30:58.39" personId="{A4AD773A-94BB-479A-B1B7-F1633C8B31ED}" id="{BC9D21DD-94F7-4123-B96E-4C0E22AAC288}">
-    <text>This intercept value is nonsensical.</text>
-  </threadedComment>
-  <threadedComment ref="F21" dT="2020-05-09T21:31:06.64" personId="{A4AD773A-94BB-479A-B1B7-F1633C8B31ED}" id="{FA3F6A17-A51A-4CBD-8C41-34C871AE34C5}">
-    <text>This intercept value is nonsensical.</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97.40625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -789,7 +771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -797,7 +779,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -805,7 +787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -813,7 +795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -821,12 +803,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -834,32 +816,32 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B11" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B12" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B13" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B14" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -867,7 +849,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A16" s="2" t="s">
         <v>66</v>
       </c>
@@ -875,7 +857,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -883,7 +865,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -891,7 +873,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
@@ -899,7 +881,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -907,7 +889,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
@@ -915,7 +897,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
@@ -923,7 +905,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
@@ -931,7 +913,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A24" s="2" t="s">
         <v>36</v>
       </c>
@@ -939,7 +921,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
@@ -947,7 +929,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
@@ -955,7 +937,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A27" s="2" t="s">
         <v>39</v>
       </c>
@@ -963,7 +945,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A28" s="2" t="s">
         <v>40</v>
       </c>
@@ -971,7 +953,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A29" s="2" t="s">
         <v>79</v>
       </c>
@@ -979,7 +961,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A30" s="2" t="s">
         <v>80</v>
       </c>
@@ -987,7 +969,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A31" s="2" t="s">
         <v>1</v>
       </c>
@@ -995,7 +977,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
@@ -1003,7 +985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A33" s="2" t="s">
         <v>86</v>
       </c>
@@ -1011,7 +993,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A34" s="2" t="s">
         <v>20</v>
       </c>
@@ -1019,7 +1001,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A35" s="2" t="s">
         <v>0</v>
       </c>
@@ -1027,7 +1009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A36" s="2" t="s">
         <v>18</v>
       </c>
@@ -1035,7 +1017,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
@@ -1051,7 +1033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1061,39 +1043,39 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="35" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.04296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.40625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.76953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.76953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.76953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.76953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.76953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="35" width="5.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.76953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A1" s="5" t="s">
         <v>64</v>
       </c>
@@ -1212,7 +1194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A2" s="6" t="s">
         <v>65</v>
       </c>
@@ -1252,7 +1234,7 @@
         <v>15931.599999999977</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A3" s="6" t="s">
         <v>65</v>
       </c>
@@ -1296,7 +1278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
         <v>65</v>
       </c>
@@ -1338,7 +1320,7 @@
       </c>
       <c r="AM4" s="7"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
         <v>65</v>
       </c>
@@ -1392,7 +1374,7 @@
       </c>
       <c r="AN5" s="3"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A6" s="6" t="s">
         <v>65</v>
       </c>
@@ -1450,7 +1432,7 @@
       </c>
       <c r="AN6" s="3"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A7" s="6" t="s">
         <v>65</v>
       </c>
@@ -1535,7 +1517,7 @@
       </c>
       <c r="AN7" s="3"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A8" s="6" t="s">
         <v>65</v>
       </c>
@@ -1648,7 +1630,7 @@
       </c>
       <c r="AN8" s="3"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.6">
       <c r="F9" s="12"/>
       <c r="G9" s="15"/>
       <c r="H9" s="14"/>
@@ -1660,7 +1642,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="14"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.6">
       <c r="F10" s="12"/>
       <c r="G10" s="15"/>
       <c r="H10" s="14"/>
@@ -1676,7 +1658,7 @@
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.6">
       <c r="F11" s="12"/>
       <c r="G11" s="15"/>
       <c r="H11" s="14"/>
@@ -1689,7 +1671,7 @@
       <c r="P11" s="14"/>
       <c r="S11" s="22"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.6">
       <c r="F12" s="12"/>
       <c r="G12" s="15"/>
       <c r="H12" s="14"/>
@@ -1705,7 +1687,7 @@
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.6">
       <c r="F13" s="12"/>
       <c r="G13" s="15"/>
       <c r="H13" s="14"/>
@@ -1717,7 +1699,7 @@
       <c r="O13" s="3"/>
       <c r="P13" s="14"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.6">
       <c r="F14" s="12"/>
       <c r="G14" s="15"/>
       <c r="H14" s="14"/>
@@ -1733,7 +1715,7 @@
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.6">
       <c r="F15" s="12"/>
       <c r="G15" s="15"/>
       <c r="H15" s="14"/>
@@ -1745,7 +1727,7 @@
       <c r="O15" s="3"/>
       <c r="P15" s="14"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.6">
       <c r="F16" s="12"/>
       <c r="G16" s="15"/>
       <c r="H16" s="14"/>
@@ -1761,7 +1743,7 @@
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
     </row>
-    <row r="17" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="6:19" x14ac:dyDescent="0.6">
       <c r="F17" s="12"/>
       <c r="G17" s="15"/>
       <c r="H17" s="14"/>
@@ -1773,7 +1755,7 @@
       <c r="O17" s="3"/>
       <c r="P17" s="14"/>
     </row>
-    <row r="18" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:19" x14ac:dyDescent="0.6">
       <c r="F18" s="12"/>
       <c r="G18" s="15"/>
       <c r="H18" s="14"/>
@@ -1789,7 +1771,7 @@
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
     </row>
-    <row r="19" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:19" x14ac:dyDescent="0.6">
       <c r="F19" s="12"/>
       <c r="G19" s="15"/>
       <c r="H19" s="14"/>
@@ -1801,7 +1783,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="14"/>
     </row>
-    <row r="20" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:19" x14ac:dyDescent="0.6">
       <c r="F20" s="12"/>
       <c r="G20" s="15"/>
       <c r="H20" s="14"/>
@@ -1817,7 +1799,7 @@
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
     </row>
-    <row r="21" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="6:19" x14ac:dyDescent="0.6">
       <c r="F21" s="12"/>
       <c r="G21" s="15"/>
       <c r="H21" s="14"/>
@@ -1829,7 +1811,7 @@
       <c r="O21" s="3"/>
       <c r="P21" s="14"/>
     </row>
-    <row r="22" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:19" x14ac:dyDescent="0.6">
       <c r="F22" s="12"/>
       <c r="G22" s="15"/>
       <c r="H22" s="14"/>
@@ -1845,7 +1827,7 @@
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
     </row>
-    <row r="23" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:19" x14ac:dyDescent="0.6">
       <c r="F23" s="12"/>
       <c r="G23" s="15"/>
       <c r="H23" s="14"/>
@@ -1857,7 +1839,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="14"/>
     </row>
-    <row r="24" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:19" x14ac:dyDescent="0.6">
       <c r="F24" s="12"/>
       <c r="G24" s="15"/>
       <c r="H24" s="14"/>
@@ -1873,7 +1855,7 @@
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
     </row>
-    <row r="25" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:19" x14ac:dyDescent="0.6">
       <c r="F25" s="12"/>
       <c r="G25" s="15"/>
       <c r="H25" s="14"/>
@@ -1885,7 +1867,7 @@
       <c r="O25" s="3"/>
       <c r="P25" s="14"/>
     </row>
-    <row r="26" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:19" x14ac:dyDescent="0.6">
       <c r="F26" s="12"/>
       <c r="G26" s="15"/>
       <c r="H26" s="14"/>
@@ -1901,7 +1883,7 @@
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
     </row>
-    <row r="27" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:19" x14ac:dyDescent="0.6">
       <c r="F27" s="12"/>
       <c r="G27" s="15"/>
       <c r="H27" s="14"/>
@@ -1913,7 +1895,7 @@
       <c r="O27" s="3"/>
       <c r="P27" s="14"/>
     </row>
-    <row r="28" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:19" x14ac:dyDescent="0.6">
       <c r="F28" s="12"/>
       <c r="G28" s="15"/>
       <c r="H28" s="14"/>
@@ -1929,7 +1911,7 @@
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
     </row>
-    <row r="29" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:19" x14ac:dyDescent="0.6">
       <c r="F29" s="12"/>
       <c r="G29" s="15"/>
       <c r="H29" s="14"/>
@@ -1941,7 +1923,7 @@
       <c r="O29" s="3"/>
       <c r="P29" s="14"/>
     </row>
-    <row r="30" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:19" x14ac:dyDescent="0.6">
       <c r="F30" s="12"/>
       <c r="G30" s="15"/>
       <c r="H30" s="14"/>
@@ -1957,7 +1939,7 @@
       <c r="R30" s="9"/>
       <c r="S30" s="9"/>
     </row>
-    <row r="31" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:19" x14ac:dyDescent="0.6">
       <c r="F31" s="12"/>
       <c r="G31" s="15"/>
       <c r="H31" s="14"/>
@@ -1969,7 +1951,7 @@
       <c r="O31" s="3"/>
       <c r="P31" s="14"/>
     </row>
-    <row r="32" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:19" x14ac:dyDescent="0.6">
       <c r="F32" s="12"/>
       <c r="G32" s="15"/>
       <c r="H32" s="14"/>
@@ -1985,7 +1967,7 @@
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
     </row>
-    <row r="33" spans="6:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:16" x14ac:dyDescent="0.6">
       <c r="F33" s="12"/>
       <c r="G33" s="15"/>
       <c r="H33" s="14"/>
@@ -2174,18 +2156,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2207,6 +2189,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EC47B0-AA78-47A5-9B79-6FFFCCC52CA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2220,12 +2210,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/surya_punctuation_5_26/surya_results_punctuation.xlsx
+++ b/surya_punctuation_5_26/surya_results_punctuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin Surya\Google Drive\Operation\IZANAMI\2_macroevolution\surya_punctuation_5_26\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A746FBBC-0BC4-4C3D-9753-A769496FC3BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7EA192-C747-4028-AED1-C311711BC38E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="89">
   <si>
     <t>log_lik</t>
   </si>
@@ -315,19 +315,20 @@
   <si>
     <t>1-group (no outliers)</t>
   </si>
+  <si>
+    <t>molecular (cipres)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.0000000"/>
     <numFmt numFmtId="167" formatCode="0.000000000"/>
     <numFmt numFmtId="168" formatCode="0.0000000000"/>
-    <numFmt numFmtId="169" formatCode="0.00000000"/>
-    <numFmt numFmtId="170" formatCode="0.0000000000000000000000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -408,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -432,8 +433,6 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,10 +448,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1034,7 +1029,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AN33"/>
+  <dimension ref="A1:BT32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
@@ -1047,7 +1042,7 @@
   <cols>
     <col min="1" max="1" width="8.04296875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.40625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.86328125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.90625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.1796875" style="6" bestFit="1" customWidth="1"/>
@@ -1060,7 +1055,7 @@
     <col min="13" max="13" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.76953125" style="10" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.76953125" style="10" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="9.1796875" style="6" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.1796875" style="10" bestFit="1" customWidth="1"/>
@@ -1075,7 +1070,7 @@
     <col min="40" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:72" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A1" s="5" t="s">
         <v>64</v>
       </c>
@@ -1194,7 +1189,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A2" s="6" t="s">
         <v>65</v>
       </c>
@@ -1234,7 +1229,7 @@
         <v>15931.599999999977</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.6">
       <c r="A3" s="6" t="s">
         <v>65</v>
       </c>
@@ -1278,7 +1273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
         <v>65</v>
       </c>
@@ -1320,7 +1315,7 @@
       </c>
       <c r="AM4" s="7"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
         <v>65</v>
       </c>
@@ -1374,7 +1369,7 @@
       </c>
       <c r="AN5" s="3"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.6">
       <c r="A6" s="6" t="s">
         <v>65</v>
       </c>
@@ -1432,7 +1427,7 @@
       </c>
       <c r="AN6" s="3"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.6">
       <c r="A7" s="6" t="s">
         <v>65</v>
       </c>
@@ -1517,7 +1512,7 @@
       </c>
       <c r="AN7" s="3"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.6">
       <c r="A8" s="6" t="s">
         <v>65</v>
       </c>
@@ -1630,354 +1625,869 @@
       </c>
       <c r="AN8" s="3"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.6">
-      <c r="F9" s="12"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="14"/>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.6">
-      <c r="F10" s="12"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.6">
-      <c r="F11" s="12"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="14"/>
-      <c r="S11" s="22"/>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.6">
-      <c r="F12" s="12"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.6">
-      <c r="F13" s="12"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="14"/>
-      <c r="J13" s="14"/>
+    <row r="9" spans="1:72" x14ac:dyDescent="0.6">
+      <c r="A9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12">
+        <v>2.4372280000000001E-4</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="T9" s="16">
+        <v>5.87857091760149E-9</v>
+      </c>
+      <c r="U9" s="11"/>
+      <c r="V9" s="14">
+        <v>1.895795E-6</v>
+      </c>
+      <c r="W9" s="11"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AK9" s="9">
+        <v>138227</v>
+      </c>
+      <c r="AL9" s="7">
+        <v>-276434.7</v>
+      </c>
+      <c r="AM9" s="7">
+        <f>AL9-AL10</f>
+        <v>9269.2999999999884</v>
+      </c>
+    </row>
+    <row r="10" spans="1:72" x14ac:dyDescent="0.6">
+      <c r="A10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12">
+        <v>1.207442E-4</v>
+      </c>
+      <c r="G10" s="15">
+        <v>4.8142030000000003E-5</v>
+      </c>
+      <c r="T10" s="16">
+        <v>3.1635606805084E-9</v>
+      </c>
+      <c r="U10" s="7">
+        <v>-2.1146910183925001</v>
+      </c>
+      <c r="V10" s="14">
+        <v>1.7627990000000001E-6</v>
+      </c>
+      <c r="W10" s="17">
+        <v>4.2403709999999999E-7</v>
+      </c>
+      <c r="AJ10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="9">
+        <v>142866.4</v>
+      </c>
+      <c r="AL10" s="7">
+        <v>-285704</v>
+      </c>
+      <c r="AM10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:72" x14ac:dyDescent="0.6">
+      <c r="A11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="18">
+        <v>1.2082419999999999E-4</v>
+      </c>
+      <c r="G11" s="19">
+        <v>4.8137979999999997E-5</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="R11" s="15">
+        <v>-5.0284669999999998E-17</v>
+      </c>
+      <c r="S11" s="7"/>
+      <c r="T11" s="16">
+        <v>0</v>
+      </c>
+      <c r="U11" s="3">
+        <v>-2.1160000000000001</v>
+      </c>
+      <c r="V11" s="14">
+        <v>1.774321E-6</v>
+      </c>
+      <c r="W11" s="20">
+        <v>4.2417150000000001E-7</v>
+      </c>
+      <c r="AH11" s="13">
+        <v>1.264939E-16</v>
+      </c>
+      <c r="AJ11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="9">
+        <v>142830.79999999999</v>
+      </c>
+      <c r="AL11" s="3">
+        <v>-285623.2</v>
+      </c>
+      <c r="AM11" s="7">
+        <f>AL11-AL10</f>
+        <v>80.799999999988358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:72" x14ac:dyDescent="0.6">
+      <c r="A12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="18">
+        <v>1.217924E-4</v>
+      </c>
+      <c r="G12" s="19">
+        <v>4.7909640000000002E-5</v>
+      </c>
+      <c r="R12" s="15">
+        <v>-6.8954749999999999E-16</v>
+      </c>
+      <c r="S12" s="15">
+        <v>1.9868410000000001E-16</v>
+      </c>
+      <c r="T12" s="16">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>-2.1230000000000002</v>
+      </c>
+      <c r="V12" s="14">
+        <v>1.840844E-6</v>
+      </c>
+      <c r="W12" s="20">
+        <v>4.3965759999999998E-7</v>
+      </c>
+      <c r="AH12" s="11">
+        <v>3.4802060000000002E-16</v>
+      </c>
+      <c r="AI12" s="11">
+        <v>1.007692E-16</v>
+      </c>
+      <c r="AJ12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="9">
+        <v>142796.79999999999</v>
+      </c>
+      <c r="AL12" s="3">
+        <v>-285545.59999999998</v>
+      </c>
+      <c r="AM12" s="7">
+        <f>AL12-AL10</f>
+        <v>158.40000000002328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:72" x14ac:dyDescent="0.6">
+      <c r="A13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1.212574E-4</v>
+      </c>
+      <c r="G13" s="15">
+        <v>4.8125409999999999E-5</v>
+      </c>
+      <c r="H13" s="14">
+        <v>-5.0067549999999999E-7</v>
+      </c>
+      <c r="J13" s="14">
+        <v>-6.8232980000000001E-7</v>
+      </c>
       <c r="K13" s="3"/>
-      <c r="L13" s="14"/>
+      <c r="L13" s="14">
+        <v>6.8561190000000002E-8</v>
+      </c>
       <c r="M13" s="3"/>
-      <c r="N13" s="14"/>
+      <c r="N13" s="14">
+        <v>-4.5533689999999998E-7</v>
+      </c>
       <c r="O13" s="3"/>
-      <c r="P13" s="14"/>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.6">
-      <c r="F14" s="12"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="19"/>
+      <c r="P13" s="14">
+        <v>-1.239229E-7</v>
+      </c>
+      <c r="T13" s="16">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>-2.113</v>
+      </c>
+      <c r="V13" s="14">
+        <v>2.471824E-6</v>
+      </c>
+      <c r="W13" s="17">
+        <v>4.2424139999999999E-7</v>
+      </c>
+      <c r="X13" s="13">
+        <v>1.801723E-6</v>
+      </c>
+      <c r="Z13" s="13">
+        <v>1.7422279999999999E-6</v>
+      </c>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13">
+        <v>1.771817E-6</v>
+      </c>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13">
+        <v>1.7945060000000001E-6</v>
+      </c>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13">
+        <v>1.9508929999999998E-6</v>
+      </c>
+      <c r="AJ13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="9">
+        <v>142802.1</v>
+      </c>
+      <c r="AL13" s="7">
+        <v>-285527.2</v>
+      </c>
+      <c r="AM13" s="7">
+        <f>AL13-AL10</f>
+        <v>176.79999999998836</v>
+      </c>
+    </row>
+    <row r="14" spans="1:72" x14ac:dyDescent="0.6">
+      <c r="A14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1.2496849999999999E-4</v>
+      </c>
+      <c r="G14" s="15">
+        <v>4.7091449999999998E-5</v>
+      </c>
+      <c r="H14" s="14">
+        <v>-5.884273E-6</v>
+      </c>
+      <c r="I14" s="19">
+        <v>1.6358530000000001E-6</v>
+      </c>
+      <c r="J14" s="14">
+        <v>-4.3947340000000001E-6</v>
+      </c>
+      <c r="K14" s="19">
+        <v>1.11985E-6</v>
+      </c>
+      <c r="L14" s="14">
+        <v>-1.507701E-6</v>
+      </c>
+      <c r="M14" s="19">
+        <v>4.7679579999999999E-7</v>
+      </c>
+      <c r="N14" s="14">
+        <v>-2.9295539999999999E-6</v>
+      </c>
+      <c r="O14" s="19">
+        <v>7.2583220000000002E-7</v>
+      </c>
+      <c r="P14" s="14">
+        <v>-1.867581E-7</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>2.2377409999999999E-7</v>
+      </c>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.6">
+      <c r="T14" s="16">
+        <v>0</v>
+      </c>
+      <c r="U14" s="7">
+        <v>-2.121</v>
+      </c>
+      <c r="V14" s="14">
+        <v>4.833484E-6</v>
+      </c>
+      <c r="W14" s="17">
+        <v>1.3031569999999999E-6</v>
+      </c>
+      <c r="X14" s="13">
+        <v>4.6144759999999998E-6</v>
+      </c>
+      <c r="Y14" s="13">
+        <v>1.2798860000000001E-6</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>4.5515509999999999E-6</v>
+      </c>
+      <c r="AA14" s="13">
+        <v>1.2415530000000001E-6</v>
+      </c>
+      <c r="AB14" s="13">
+        <v>4.7059820000000003E-6</v>
+      </c>
+      <c r="AC14" s="13">
+        <v>1.296906E-6</v>
+      </c>
+      <c r="AD14" s="13">
+        <v>4.6888190000000002E-6</v>
+      </c>
+      <c r="AE14" s="13">
+        <v>1.286711E-6</v>
+      </c>
+      <c r="AF14" s="13">
+        <v>6.0461469999999998E-6</v>
+      </c>
+      <c r="AG14" s="13">
+        <v>1.5579459999999999E-6</v>
+      </c>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="12">
+        <v>2.9294400000000002E-274</v>
+      </c>
+      <c r="AK14" s="9">
+        <v>142738.9</v>
+      </c>
+      <c r="AL14" s="3">
+        <v>-285352.90000000002</v>
+      </c>
+      <c r="AM14" s="7">
+        <f>AL14-AL10</f>
+        <v>351.09999999997672</v>
+      </c>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+      <c r="AQ14" s="6"/>
+      <c r="AS14" s="6"/>
+      <c r="AU14" s="6"/>
+      <c r="AW14" s="6"/>
+      <c r="AY14" s="6"/>
+      <c r="AZ14" s="6"/>
+      <c r="BA14" s="16"/>
+      <c r="BB14" s="11"/>
+      <c r="BC14" s="14"/>
+      <c r="BD14" s="11"/>
+      <c r="BE14" s="6"/>
+      <c r="BF14" s="6"/>
+      <c r="BG14" s="6"/>
+      <c r="BH14" s="6"/>
+      <c r="BI14" s="6"/>
+      <c r="BJ14" s="6"/>
+      <c r="BK14" s="6"/>
+      <c r="BL14" s="6"/>
+      <c r="BM14" s="6"/>
+      <c r="BN14" s="6"/>
+      <c r="BO14" s="6"/>
+      <c r="BP14" s="6"/>
+      <c r="BQ14" s="6"/>
+      <c r="BR14" s="9"/>
+      <c r="BS14" s="7"/>
+      <c r="BT14" s="7"/>
+    </row>
+    <row r="15" spans="1:72" x14ac:dyDescent="0.6">
       <c r="F15" s="12"/>
       <c r="G15" s="15"/>
       <c r="H15" s="14"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="14"/>
-      <c r="K15" s="3"/>
+      <c r="K15" s="19"/>
       <c r="L15" s="14"/>
-      <c r="M15" s="3"/>
+      <c r="M15" s="19"/>
       <c r="N15" s="14"/>
-      <c r="O15" s="3"/>
+      <c r="O15" s="19"/>
       <c r="P15" s="14"/>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.6">
+      <c r="Q15" s="19"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="AM15" s="12"/>
+      <c r="AN15" s="15"/>
+      <c r="AO15" s="10"/>
+      <c r="AQ15" s="10"/>
+      <c r="AS15" s="10"/>
+      <c r="AU15" s="10"/>
+      <c r="AW15" s="10"/>
+      <c r="AY15" s="6"/>
+      <c r="AZ15" s="6"/>
+      <c r="BA15" s="16"/>
+      <c r="BB15" s="7"/>
+      <c r="BC15" s="14"/>
+      <c r="BD15" s="17"/>
+      <c r="BE15" s="10"/>
+      <c r="BF15" s="10"/>
+      <c r="BG15" s="10"/>
+      <c r="BH15" s="10"/>
+      <c r="BI15" s="10"/>
+      <c r="BJ15" s="10"/>
+      <c r="BK15" s="10"/>
+      <c r="BL15" s="10"/>
+      <c r="BM15" s="10"/>
+      <c r="BN15" s="10"/>
+      <c r="BO15" s="10"/>
+      <c r="BP15" s="10"/>
+      <c r="BQ15" s="12"/>
+      <c r="BR15" s="9"/>
+      <c r="BS15" s="7"/>
+      <c r="BT15" s="7"/>
+    </row>
+    <row r="16" spans="1:72" x14ac:dyDescent="0.6">
       <c r="F16" s="12"/>
       <c r="G16" s="15"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="19"/>
       <c r="J16" s="14"/>
-      <c r="K16" s="19"/>
+      <c r="K16" s="3"/>
       <c r="L16" s="14"/>
-      <c r="M16" s="19"/>
+      <c r="M16" s="3"/>
       <c r="N16" s="14"/>
-      <c r="O16" s="19"/>
+      <c r="O16" s="3"/>
       <c r="P16" s="14"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-    </row>
-    <row r="17" spans="6:19" x14ac:dyDescent="0.6">
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="15"/>
+      <c r="AO16" s="10"/>
+      <c r="AQ16" s="10"/>
+      <c r="AS16" s="10"/>
+      <c r="AU16" s="10"/>
+      <c r="AW16" s="10"/>
+      <c r="AY16" s="6"/>
+      <c r="AZ16" s="6"/>
+      <c r="BA16" s="16"/>
+      <c r="BB16" s="7"/>
+      <c r="BC16" s="14"/>
+      <c r="BD16" s="17"/>
+      <c r="BE16" s="10"/>
+      <c r="BF16" s="10"/>
+      <c r="BG16" s="10"/>
+      <c r="BH16" s="10"/>
+      <c r="BI16" s="10"/>
+      <c r="BJ16" s="10"/>
+      <c r="BK16" s="10"/>
+      <c r="BL16" s="10"/>
+      <c r="BM16" s="10"/>
+      <c r="BN16" s="10"/>
+      <c r="BO16" s="10"/>
+      <c r="BP16" s="10"/>
+      <c r="BQ16" s="12"/>
+      <c r="BR16" s="9"/>
+      <c r="BS16" s="7"/>
+      <c r="BT16" s="7"/>
+    </row>
+    <row r="17" spans="6:72" x14ac:dyDescent="0.6">
       <c r="F17" s="12"/>
       <c r="G17" s="15"/>
       <c r="H17" s="14"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="14"/>
-      <c r="K17" s="3"/>
+      <c r="K17" s="19"/>
       <c r="L17" s="14"/>
-      <c r="M17" s="3"/>
+      <c r="M17" s="19"/>
       <c r="N17" s="14"/>
-      <c r="O17" s="3"/>
+      <c r="O17" s="19"/>
       <c r="P17" s="14"/>
-    </row>
-    <row r="18" spans="6:19" x14ac:dyDescent="0.6">
+      <c r="Q17" s="19"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="AM17" s="18"/>
+      <c r="AN17" s="19"/>
+      <c r="AO17" s="3"/>
+      <c r="AQ17" s="10"/>
+      <c r="AS17" s="10"/>
+      <c r="AU17" s="10"/>
+      <c r="AW17" s="10"/>
+      <c r="AY17" s="15"/>
+      <c r="AZ17" s="7"/>
+      <c r="BA17" s="16"/>
+      <c r="BB17" s="3"/>
+      <c r="BC17" s="14"/>
+      <c r="BD17" s="20"/>
+      <c r="BE17" s="10"/>
+      <c r="BF17" s="10"/>
+      <c r="BG17" s="10"/>
+      <c r="BH17" s="10"/>
+      <c r="BI17" s="10"/>
+      <c r="BJ17" s="10"/>
+      <c r="BK17" s="10"/>
+      <c r="BL17" s="10"/>
+      <c r="BM17" s="10"/>
+      <c r="BN17" s="10"/>
+      <c r="BO17" s="13"/>
+      <c r="BP17" s="10"/>
+      <c r="BQ17" s="12"/>
+      <c r="BR17" s="9"/>
+      <c r="BS17" s="3"/>
+      <c r="BT17" s="7"/>
+    </row>
+    <row r="18" spans="6:72" x14ac:dyDescent="0.6">
       <c r="F18" s="12"/>
       <c r="G18" s="15"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="19"/>
       <c r="J18" s="14"/>
-      <c r="K18" s="19"/>
+      <c r="K18" s="3"/>
       <c r="L18" s="14"/>
-      <c r="M18" s="19"/>
+      <c r="M18" s="3"/>
       <c r="N18" s="14"/>
-      <c r="O18" s="19"/>
+      <c r="O18" s="3"/>
       <c r="P18" s="14"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-    </row>
-    <row r="19" spans="6:19" x14ac:dyDescent="0.6">
+      <c r="AM18" s="18"/>
+      <c r="AN18" s="19"/>
+      <c r="AO18" s="10"/>
+      <c r="AQ18" s="10"/>
+      <c r="AS18" s="10"/>
+      <c r="AU18" s="10"/>
+      <c r="AW18" s="10"/>
+      <c r="AY18" s="15"/>
+      <c r="AZ18" s="15"/>
+      <c r="BA18" s="16"/>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="14"/>
+      <c r="BD18" s="20"/>
+      <c r="BE18" s="10"/>
+      <c r="BF18" s="10"/>
+      <c r="BG18" s="10"/>
+      <c r="BH18" s="10"/>
+      <c r="BI18" s="10"/>
+      <c r="BJ18" s="10"/>
+      <c r="BK18" s="10"/>
+      <c r="BL18" s="10"/>
+      <c r="BM18" s="10"/>
+      <c r="BN18" s="10"/>
+      <c r="BO18" s="11"/>
+      <c r="BP18" s="11"/>
+      <c r="BQ18" s="12"/>
+      <c r="BR18" s="9"/>
+      <c r="BS18" s="3"/>
+      <c r="BT18" s="7"/>
+    </row>
+    <row r="19" spans="6:72" x14ac:dyDescent="0.6">
       <c r="F19" s="12"/>
       <c r="G19" s="15"/>
       <c r="H19" s="14"/>
+      <c r="I19" s="19"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="3"/>
+      <c r="K19" s="19"/>
       <c r="L19" s="14"/>
-      <c r="M19" s="3"/>
+      <c r="M19" s="19"/>
       <c r="N19" s="14"/>
-      <c r="O19" s="3"/>
+      <c r="O19" s="19"/>
       <c r="P19" s="14"/>
-    </row>
-    <row r="20" spans="6:19" x14ac:dyDescent="0.6">
+      <c r="Q19" s="19"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="AM19" s="12"/>
+      <c r="AN19" s="15"/>
+      <c r="AO19" s="14"/>
+      <c r="AQ19" s="14"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="14"/>
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="14"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="14"/>
+      <c r="AY19" s="6"/>
+      <c r="AZ19" s="6"/>
+      <c r="BA19" s="16"/>
+      <c r="BB19" s="3"/>
+      <c r="BC19" s="14"/>
+      <c r="BD19" s="17"/>
+      <c r="BE19" s="13"/>
+      <c r="BF19" s="10"/>
+      <c r="BG19" s="13"/>
+      <c r="BH19" s="13"/>
+      <c r="BI19" s="13"/>
+      <c r="BJ19" s="13"/>
+      <c r="BK19" s="13"/>
+      <c r="BL19" s="13"/>
+      <c r="BM19" s="13"/>
+      <c r="BN19" s="10"/>
+      <c r="BO19" s="10"/>
+      <c r="BP19" s="10"/>
+      <c r="BQ19" s="12"/>
+      <c r="BR19" s="9"/>
+      <c r="BS19" s="7"/>
+      <c r="BT19" s="7"/>
+    </row>
+    <row r="20" spans="6:72" x14ac:dyDescent="0.6">
       <c r="F20" s="12"/>
       <c r="G20" s="15"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="19"/>
       <c r="J20" s="14"/>
-      <c r="K20" s="19"/>
+      <c r="K20" s="3"/>
       <c r="L20" s="14"/>
-      <c r="M20" s="19"/>
+      <c r="M20" s="3"/>
       <c r="N20" s="14"/>
-      <c r="O20" s="19"/>
+      <c r="O20" s="3"/>
       <c r="P20" s="14"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-    </row>
-    <row r="21" spans="6:19" x14ac:dyDescent="0.6">
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="15"/>
+      <c r="AO20" s="14"/>
+      <c r="AP20" s="19"/>
+      <c r="AQ20" s="14"/>
+      <c r="AR20" s="19"/>
+      <c r="AS20" s="14"/>
+      <c r="AT20" s="19"/>
+      <c r="AU20" s="14"/>
+      <c r="AV20" s="19"/>
+      <c r="AW20" s="14"/>
+      <c r="AX20" s="19"/>
+      <c r="AY20" s="9"/>
+      <c r="AZ20" s="9"/>
+      <c r="BA20" s="16"/>
+      <c r="BB20" s="7"/>
+      <c r="BC20" s="14"/>
+      <c r="BD20" s="17"/>
+      <c r="BE20" s="13"/>
+      <c r="BF20" s="13"/>
+      <c r="BG20" s="13"/>
+      <c r="BH20" s="13"/>
+      <c r="BI20" s="13"/>
+      <c r="BJ20" s="13"/>
+      <c r="BK20" s="13"/>
+      <c r="BL20" s="13"/>
+      <c r="BM20" s="13"/>
+      <c r="BN20" s="13"/>
+      <c r="BO20" s="13"/>
+      <c r="BP20" s="13"/>
+      <c r="BQ20" s="12"/>
+      <c r="BR20" s="9"/>
+      <c r="BS20" s="3"/>
+      <c r="BT20" s="7"/>
+    </row>
+    <row r="21" spans="6:72" x14ac:dyDescent="0.6">
       <c r="F21" s="12"/>
       <c r="G21" s="15"/>
       <c r="H21" s="14"/>
+      <c r="I21" s="19"/>
       <c r="J21" s="14"/>
-      <c r="K21" s="3"/>
+      <c r="K21" s="19"/>
       <c r="L21" s="14"/>
-      <c r="M21" s="3"/>
+      <c r="M21" s="19"/>
       <c r="N21" s="14"/>
-      <c r="O21" s="3"/>
+      <c r="O21" s="19"/>
       <c r="P21" s="14"/>
-    </row>
-    <row r="22" spans="6:19" x14ac:dyDescent="0.6">
+      <c r="Q21" s="19"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+    </row>
+    <row r="22" spans="6:72" x14ac:dyDescent="0.6">
       <c r="F22" s="12"/>
       <c r="G22" s="15"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="19"/>
       <c r="J22" s="14"/>
-      <c r="K22" s="19"/>
+      <c r="K22" s="3"/>
       <c r="L22" s="14"/>
-      <c r="M22" s="19"/>
+      <c r="M22" s="3"/>
       <c r="N22" s="14"/>
-      <c r="O22" s="19"/>
+      <c r="O22" s="3"/>
       <c r="P22" s="14"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-    </row>
-    <row r="23" spans="6:19" x14ac:dyDescent="0.6">
+    </row>
+    <row r="23" spans="6:72" x14ac:dyDescent="0.6">
       <c r="F23" s="12"/>
       <c r="G23" s="15"/>
       <c r="H23" s="14"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="14"/>
-      <c r="K23" s="3"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="14"/>
-      <c r="M23" s="3"/>
+      <c r="M23" s="19"/>
       <c r="N23" s="14"/>
-      <c r="O23" s="3"/>
+      <c r="O23" s="19"/>
       <c r="P23" s="14"/>
-    </row>
-    <row r="24" spans="6:19" x14ac:dyDescent="0.6">
+      <c r="Q23" s="19"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+    </row>
+    <row r="24" spans="6:72" x14ac:dyDescent="0.6">
       <c r="F24" s="12"/>
       <c r="G24" s="15"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="19"/>
       <c r="J24" s="14"/>
-      <c r="K24" s="19"/>
+      <c r="K24" s="3"/>
       <c r="L24" s="14"/>
-      <c r="M24" s="19"/>
+      <c r="M24" s="3"/>
       <c r="N24" s="14"/>
-      <c r="O24" s="19"/>
+      <c r="O24" s="3"/>
       <c r="P24" s="14"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-    </row>
-    <row r="25" spans="6:19" x14ac:dyDescent="0.6">
+    </row>
+    <row r="25" spans="6:72" x14ac:dyDescent="0.6">
       <c r="F25" s="12"/>
       <c r="G25" s="15"/>
       <c r="H25" s="14"/>
+      <c r="I25" s="19"/>
       <c r="J25" s="14"/>
-      <c r="K25" s="3"/>
+      <c r="K25" s="19"/>
       <c r="L25" s="14"/>
-      <c r="M25" s="3"/>
+      <c r="M25" s="19"/>
       <c r="N25" s="14"/>
-      <c r="O25" s="3"/>
+      <c r="O25" s="19"/>
       <c r="P25" s="14"/>
-    </row>
-    <row r="26" spans="6:19" x14ac:dyDescent="0.6">
+      <c r="Q25" s="19"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+    </row>
+    <row r="26" spans="6:72" x14ac:dyDescent="0.6">
       <c r="F26" s="12"/>
       <c r="G26" s="15"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="19"/>
       <c r="J26" s="14"/>
-      <c r="K26" s="19"/>
+      <c r="K26" s="3"/>
       <c r="L26" s="14"/>
-      <c r="M26" s="19"/>
+      <c r="M26" s="3"/>
       <c r="N26" s="14"/>
-      <c r="O26" s="19"/>
+      <c r="O26" s="3"/>
       <c r="P26" s="14"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-    </row>
-    <row r="27" spans="6:19" x14ac:dyDescent="0.6">
+    </row>
+    <row r="27" spans="6:72" x14ac:dyDescent="0.6">
       <c r="F27" s="12"/>
       <c r="G27" s="15"/>
       <c r="H27" s="14"/>
+      <c r="I27" s="19"/>
       <c r="J27" s="14"/>
-      <c r="K27" s="3"/>
+      <c r="K27" s="19"/>
       <c r="L27" s="14"/>
-      <c r="M27" s="3"/>
+      <c r="M27" s="19"/>
       <c r="N27" s="14"/>
-      <c r="O27" s="3"/>
+      <c r="O27" s="19"/>
       <c r="P27" s="14"/>
-    </row>
-    <row r="28" spans="6:19" x14ac:dyDescent="0.6">
+      <c r="Q27" s="19"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+    </row>
+    <row r="28" spans="6:72" x14ac:dyDescent="0.6">
       <c r="F28" s="12"/>
       <c r="G28" s="15"/>
       <c r="H28" s="14"/>
-      <c r="I28" s="19"/>
       <c r="J28" s="14"/>
-      <c r="K28" s="19"/>
+      <c r="K28" s="3"/>
       <c r="L28" s="14"/>
-      <c r="M28" s="19"/>
+      <c r="M28" s="3"/>
       <c r="N28" s="14"/>
-      <c r="O28" s="19"/>
+      <c r="O28" s="3"/>
       <c r="P28" s="14"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-    </row>
-    <row r="29" spans="6:19" x14ac:dyDescent="0.6">
+    </row>
+    <row r="29" spans="6:72" x14ac:dyDescent="0.6">
       <c r="F29" s="12"/>
       <c r="G29" s="15"/>
       <c r="H29" s="14"/>
+      <c r="I29" s="19"/>
       <c r="J29" s="14"/>
-      <c r="K29" s="3"/>
+      <c r="K29" s="19"/>
       <c r="L29" s="14"/>
-      <c r="M29" s="3"/>
+      <c r="M29" s="19"/>
       <c r="N29" s="14"/>
-      <c r="O29" s="3"/>
+      <c r="O29" s="19"/>
       <c r="P29" s="14"/>
-    </row>
-    <row r="30" spans="6:19" x14ac:dyDescent="0.6">
+      <c r="Q29" s="19"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+    </row>
+    <row r="30" spans="6:72" x14ac:dyDescent="0.6">
       <c r="F30" s="12"/>
       <c r="G30" s="15"/>
       <c r="H30" s="14"/>
-      <c r="I30" s="19"/>
       <c r="J30" s="14"/>
-      <c r="K30" s="19"/>
+      <c r="K30" s="3"/>
       <c r="L30" s="14"/>
-      <c r="M30" s="19"/>
+      <c r="M30" s="3"/>
       <c r="N30" s="14"/>
-      <c r="O30" s="19"/>
+      <c r="O30" s="3"/>
       <c r="P30" s="14"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-    </row>
-    <row r="31" spans="6:19" x14ac:dyDescent="0.6">
+    </row>
+    <row r="31" spans="6:72" x14ac:dyDescent="0.6">
       <c r="F31" s="12"/>
       <c r="G31" s="15"/>
       <c r="H31" s="14"/>
+      <c r="I31" s="19"/>
       <c r="J31" s="14"/>
-      <c r="K31" s="3"/>
+      <c r="K31" s="19"/>
       <c r="L31" s="14"/>
-      <c r="M31" s="3"/>
+      <c r="M31" s="19"/>
       <c r="N31" s="14"/>
-      <c r="O31" s="3"/>
+      <c r="O31" s="19"/>
       <c r="P31" s="14"/>
-    </row>
-    <row r="32" spans="6:19" x14ac:dyDescent="0.6">
+      <c r="Q31" s="19"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+    </row>
+    <row r="32" spans="6:72" x14ac:dyDescent="0.6">
       <c r="F32" s="12"/>
       <c r="G32" s="15"/>
       <c r="H32" s="14"/>
-      <c r="I32" s="19"/>
       <c r="J32" s="14"/>
-      <c r="K32" s="19"/>
+      <c r="K32" s="3"/>
       <c r="L32" s="14"/>
-      <c r="M32" s="19"/>
+      <c r="M32" s="3"/>
       <c r="N32" s="14"/>
-      <c r="O32" s="19"/>
+      <c r="O32" s="3"/>
       <c r="P32" s="14"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-    </row>
-    <row r="33" spans="6:16" x14ac:dyDescent="0.6">
-      <c r="F33" s="12"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2156,18 +2666,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2189,14 +2699,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EC47B0-AA78-47A5-9B79-6FFFCCC52CA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2210,4 +2712,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/surya_punctuation_5_26/surya_results_punctuation.xlsx
+++ b/surya_punctuation_5_26/surya_results_punctuation.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin Surya\Google Drive\Operation\IZANAMI\2_macroevolution\surya_punctuation_5_26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2_evolution\surya_punctuation_5_26\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7EA192-C747-4028-AED1-C311711BC38E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
     <sheet name="results" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="91">
   <si>
     <t>log_lik</t>
   </si>
@@ -318,11 +319,17 @@
   <si>
     <t>molecular (cipres)</t>
   </si>
+  <si>
+    <t>intercept (no outliers)</t>
+  </si>
+  <si>
+    <t>molecular (wduplicates)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -409,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -430,7 +437,6 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -746,19 +752,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="97.40625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -766,7 +772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -774,7 +780,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -782,7 +788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -790,7 +796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -798,12 +804,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -811,32 +817,32 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -844,7 +850,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>66</v>
       </c>
@@ -852,7 +858,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -860,7 +866,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -868,7 +874,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
@@ -876,7 +882,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -884,7 +890,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
@@ -892,7 +898,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
@@ -900,7 +906,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
@@ -908,7 +914,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>36</v>
       </c>
@@ -916,7 +922,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
@@ -924,7 +930,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
@@ -932,7 +938,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>39</v>
       </c>
@@ -940,7 +946,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>40</v>
       </c>
@@ -948,7 +954,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>79</v>
       </c>
@@ -956,7 +962,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>80</v>
       </c>
@@ -964,7 +970,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>1</v>
       </c>
@@ -972,7 +978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
@@ -980,7 +986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>86</v>
       </c>
@@ -988,7 +994,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>20</v>
       </c>
@@ -996,7 +1002,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>0</v>
       </c>
@@ -1004,7 +1010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>18</v>
       </c>
@@ -1012,7 +1018,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
@@ -1028,49 +1034,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BT32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BT33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.04296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.86328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.76953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.76953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.76953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.76953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.76953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.76953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="35" width="5.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.76953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="35" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:72" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>64</v>
       </c>
@@ -1189,7 +1194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>65</v>
       </c>
@@ -1202,8 +1207,8 @@
       <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="12">
-        <v>9.267546E-4</v>
+      <c r="F2" s="15">
+        <v>7.2988969999999998E-6</v>
       </c>
       <c r="I2" s="1"/>
       <c r="K2" s="1"/>
@@ -1211,25 +1216,25 @@
       <c r="O2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="T2" s="16">
-        <v>1.13139414131892E-8</v>
+        <v>3.07413800475204E-5</v>
       </c>
       <c r="U2" s="11"/>
       <c r="V2" s="14">
-        <v>5.4868800000000002E-6</v>
+        <v>4.1630459999999998E-6</v>
       </c>
       <c r="W2" s="11"/>
       <c r="AK2" s="9">
-        <v>139177.4</v>
+        <v>138362.9</v>
       </c>
       <c r="AL2" s="7">
-        <v>-278335.5</v>
+        <v>-276706.7</v>
       </c>
       <c r="AM2" s="7">
         <f>AL2-AL3</f>
-        <v>15931.599999999977</v>
-      </c>
-    </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.6">
+        <v>864.70000000001164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>65</v>
       </c>
@@ -1242,43 +1247,43 @@
       <c r="E3" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="12">
-        <v>4.6321719999999999E-4</v>
+      <c r="F3" s="15">
+        <v>3.2103399999999998E-6</v>
       </c>
       <c r="G3" s="15">
-        <v>3.2053590000000002E-6</v>
+        <v>2.3298850000000001E-6</v>
       </c>
       <c r="T3" s="16">
-        <v>3.9079959837885799E-9</v>
+        <v>2.9003871758710399E-5</v>
       </c>
       <c r="U3" s="7">
-        <v>-11.8190262048098</v>
+        <v>5.6520178538628701E-2</v>
       </c>
       <c r="V3" s="14">
-        <v>4.2360270000000003E-6</v>
+        <v>4.0461169999999999E-6</v>
       </c>
       <c r="W3" s="17">
-        <v>1.8994149999999999E-8</v>
+        <v>7.7656430000000002E-8</v>
       </c>
       <c r="AJ3" s="12">
-        <v>0</v>
+        <v>4.0093479999999999E-192</v>
       </c>
       <c r="AK3" s="9">
-        <v>147148</v>
+        <v>138800.1</v>
       </c>
       <c r="AL3" s="7">
-        <v>-294267.09999999998</v>
+        <v>-277571.40000000002</v>
       </c>
       <c r="AM3" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>25</v>
@@ -1286,41 +1291,53 @@
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="12">
-        <v>4.5189850000000001E-4</v>
-      </c>
-      <c r="G4" s="15">
-        <v>3.1845440000000001E-6</v>
-      </c>
+      <c r="F4" s="18">
+        <v>2.0442989999999998E-6</v>
+      </c>
+      <c r="G4" s="18">
+        <v>2.3325839999999999E-6</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="R4" s="15">
+        <v>2.8099179999999998E-16</v>
+      </c>
+      <c r="S4" s="7"/>
       <c r="T4" s="16">
-        <v>3.0981671981962398E-9</v>
-      </c>
-      <c r="U4" s="7">
-        <v>-11.645112996157399</v>
+        <v>2.8998935422249499E-5</v>
+      </c>
+      <c r="U4" s="3">
+        <v>5.6680754818989598E-2</v>
       </c>
       <c r="V4" s="14">
-        <v>3.7862639999999999E-6</v>
-      </c>
-      <c r="W4" s="17">
-        <v>1.704101E-8</v>
+        <v>4.1110790000000004E-6</v>
+      </c>
+      <c r="W4" s="19">
+        <v>7.7670729999999994E-8</v>
+      </c>
+      <c r="AH4" s="13">
+        <v>1.7570129999999999E-16</v>
       </c>
       <c r="AJ4" s="12">
-        <v>0</v>
+        <v>1.752744E-192</v>
       </c>
       <c r="AK4" s="9">
-        <v>148666.1</v>
-      </c>
-      <c r="AL4" s="7">
-        <v>-297303.3</v>
-      </c>
-      <c r="AM4" s="7"/>
-    </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.6">
+        <v>138801.4</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>-277564.3</v>
+      </c>
+      <c r="AM4" s="7">
+        <f>AL4-AL3</f>
+        <v>7.1000000000349246</v>
+      </c>
+      <c r="AN4" s="3"/>
+    </row>
+    <row r="5" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>25</v>
@@ -1329,110 +1346,141 @@
         <v>1</v>
       </c>
       <c r="F5" s="18">
-        <v>4.6335069999999998E-4</v>
-      </c>
-      <c r="G5" s="19">
-        <v>3.2050179999999999E-6</v>
-      </c>
-      <c r="H5" s="3"/>
+        <v>7.8137930000000003E-7</v>
+      </c>
+      <c r="G5" s="18">
+        <v>2.3325959999999998E-6</v>
+      </c>
       <c r="R5" s="15">
-        <v>-4.8955989999999999E-17</v>
-      </c>
-      <c r="S5" s="7"/>
+        <v>5.8872859999999996E-16</v>
+      </c>
+      <c r="S5" s="15">
+        <v>-1.5701070000000001E-18</v>
+      </c>
       <c r="T5" s="16">
-        <v>0</v>
+        <v>2.8994430020321899E-5</v>
       </c>
       <c r="U5" s="3">
-        <v>-11.819000000000001</v>
+        <v>5.6827313038592599E-2</v>
       </c>
       <c r="V5" s="14">
-        <v>4.2461160000000003E-6</v>
-      </c>
-      <c r="W5" s="20">
-        <v>1.9009179999999999E-8</v>
-      </c>
-      <c r="AH5" s="13">
-        <v>1.067113E-16</v>
+        <v>4.1931690000000001E-6</v>
+      </c>
+      <c r="W5" s="19">
+        <v>7.766728E-8</v>
+      </c>
+      <c r="AH5" s="11">
+        <v>2.6727039999999998E-16</v>
+      </c>
+      <c r="AI5" s="11">
+        <v>1.0276070000000001E-18</v>
       </c>
       <c r="AJ5" s="12">
-        <v>0</v>
+        <v>1.6814090000000001E-192</v>
       </c>
       <c r="AK5" s="9">
-        <v>147112.20000000001</v>
+        <v>138802.6</v>
       </c>
       <c r="AL5" s="3">
-        <v>-294185.90000000002</v>
+        <v>-277557</v>
       </c>
       <c r="AM5" s="7">
         <f>AL5-AL3</f>
-        <v>81.199999999953434</v>
+        <v>14.400000000023283</v>
       </c>
       <c r="AN5" s="3"/>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="D6" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="E6" s="6">
         <v>1</v>
       </c>
-      <c r="F6" s="18">
-        <v>4.648931E-4</v>
-      </c>
-      <c r="G6" s="19">
-        <v>3.2015530000000002E-6</v>
-      </c>
-      <c r="R6" s="15">
-        <v>-8.0597170000000005E-16</v>
-      </c>
-      <c r="S6" s="15">
-        <v>2.5316150000000001E-18</v>
+      <c r="F6" s="15">
+        <v>5.1672679999999996E-6</v>
+      </c>
+      <c r="G6" s="15">
+        <v>2.3359910000000001E-6</v>
+      </c>
+      <c r="H6" s="14">
+        <v>-1.8898000000000001E-6</v>
+      </c>
+      <c r="J6" s="14">
+        <v>-3.717118E-6</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="14">
+        <v>-2.142014E-6</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="14">
+        <v>-3.8454550000000001E-6</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="14">
+        <v>-2.5226790000000001E-6</v>
       </c>
       <c r="T6" s="16">
-        <v>0</v>
+        <v>2.89758411191129E-5</v>
       </c>
       <c r="U6" s="3">
-        <v>-11.83</v>
+        <v>5.7431999659043803E-2</v>
       </c>
       <c r="V6" s="14">
-        <v>4.2587240000000002E-6</v>
-      </c>
-      <c r="W6" s="20">
-        <v>1.901512E-8</v>
-      </c>
-      <c r="AH6" s="11">
-        <v>2.0559319999999999E-16</v>
-      </c>
-      <c r="AI6" s="11">
-        <v>5.8780570000000003E-19</v>
+        <v>4.7400700000000002E-6</v>
+      </c>
+      <c r="W6" s="17">
+        <v>7.7670740000000004E-8</v>
+      </c>
+      <c r="X6" s="13">
+        <v>2.4904049999999998E-6</v>
+      </c>
+      <c r="Z6" s="13">
+        <v>2.4135540000000001E-6</v>
+      </c>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13">
+        <v>2.4555040000000001E-6</v>
+      </c>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13">
+        <v>2.5094270000000002E-6</v>
+      </c>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13">
+        <v>2.8212350000000001E-6</v>
       </c>
       <c r="AJ6" s="12">
-        <v>0</v>
+        <v>5.0651340000000003E-193</v>
       </c>
       <c r="AK6" s="9">
-        <v>147080.4</v>
+        <v>138807.4</v>
       </c>
       <c r="AL6" s="3">
-        <v>-294112.7</v>
+        <v>-277537.8</v>
       </c>
       <c r="AM6" s="7">
         <f>AL6-AL3</f>
-        <v>154.39999999996508</v>
+        <v>33.600000000034925</v>
       </c>
       <c r="AN6" s="3"/>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>25</v>
@@ -1443,246 +1491,193 @@
       <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="12">
-        <v>4.6410929999999998E-4</v>
+      <c r="F7" s="15">
+        <v>4.7951379999999998E-6</v>
       </c>
       <c r="G7" s="15">
-        <v>3.2049149999999998E-6</v>
+        <v>2.3323940000000002E-6</v>
       </c>
       <c r="H7" s="14">
-        <v>-1.042018E-6</v>
+        <v>-1.332494E-6</v>
+      </c>
+      <c r="I7" s="18">
+        <v>-4.7437499999999999E-9</v>
       </c>
       <c r="J7" s="14">
-        <v>-8.7132440000000002E-7</v>
-      </c>
-      <c r="K7" s="3"/>
+        <v>-4.7488729999999999E-6</v>
+      </c>
+      <c r="K7" s="18">
+        <v>3.012767E-9</v>
+      </c>
       <c r="L7" s="14">
-        <v>-7.2184539999999996E-7</v>
-      </c>
-      <c r="M7" s="3"/>
+        <v>-2.9837700000000001E-6</v>
+      </c>
+      <c r="M7" s="18">
+        <v>2.1988999999999999E-9</v>
+      </c>
       <c r="N7" s="14">
-        <v>-9.5658260000000007E-7</v>
-      </c>
-      <c r="O7" s="3"/>
+        <v>-4.0391479999999996E-6</v>
+      </c>
+      <c r="O7" s="18">
+        <v>-1.6417600000000001E-10</v>
+      </c>
       <c r="P7" s="14">
-        <v>5.4486389999999998E-7</v>
-      </c>
+        <v>-4.862413E-6</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>1.0830339999999999E-8</v>
+      </c>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
       <c r="T7" s="16">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3">
-        <v>-11.817</v>
+        <v>2.8967956437256501E-5</v>
+      </c>
+      <c r="U7" s="7">
+        <v>5.76884839757663E-2</v>
       </c>
       <c r="V7" s="14">
-        <v>4.4257319999999999E-6</v>
+        <v>5.4030879999999997E-6</v>
       </c>
       <c r="W7" s="17">
-        <v>1.9011379999999999E-8</v>
+        <v>7.8246119999999997E-8</v>
       </c>
       <c r="X7" s="13">
-        <v>1.3571009999999999E-6</v>
+        <v>3.6073810000000001E-6</v>
+      </c>
+      <c r="Y7" s="13">
+        <v>1.0050239999999999E-8</v>
       </c>
       <c r="Z7" s="13">
-        <v>1.2885259999999999E-6</v>
-      </c>
-      <c r="AA7" s="13"/>
+        <v>3.5239109999999999E-6</v>
+      </c>
+      <c r="AA7" s="13">
+        <v>9.2382069999999995E-9</v>
+      </c>
       <c r="AB7" s="13">
-        <v>1.3127609999999999E-6</v>
-      </c>
-      <c r="AC7" s="13"/>
+        <v>3.6403940000000002E-6</v>
+      </c>
+      <c r="AC7" s="13">
+        <v>9.7735819999999995E-9</v>
+      </c>
       <c r="AD7" s="13">
-        <v>1.345573E-6</v>
-      </c>
-      <c r="AE7" s="13"/>
+        <v>3.7026419999999998E-6</v>
+      </c>
+      <c r="AE7" s="13">
+        <v>1.0051770000000001E-8</v>
+      </c>
       <c r="AF7" s="13">
-        <v>1.565879E-6</v>
-      </c>
+        <v>4.1339600000000003E-6</v>
+      </c>
+      <c r="AG7" s="13">
+        <v>1.314254E-8</v>
+      </c>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
       <c r="AJ7" s="12">
-        <v>0</v>
+        <v>9.7264840000000006E-190</v>
       </c>
       <c r="AK7" s="9">
-        <v>147082.4</v>
-      </c>
-      <c r="AL7" s="7">
-        <v>-294087.90000000002</v>
+        <v>138809.4</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>-277493.8</v>
       </c>
       <c r="AM7" s="7">
         <f>AL7-AL3</f>
-        <v>179.19999999995343</v>
+        <v>77.600000000034925</v>
       </c>
       <c r="AN7" s="3"/>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="E8" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="12">
-        <v>4.647718E-4</v>
-      </c>
-      <c r="G8" s="15">
-        <v>3.2034090000000001E-6</v>
-      </c>
-      <c r="H8" s="14">
-        <v>-3.7426969999999999E-6</v>
-      </c>
-      <c r="I8" s="19">
-        <v>1.004924E-8</v>
-      </c>
-      <c r="J8" s="14">
-        <v>-2.034437E-7</v>
-      </c>
-      <c r="K8" s="19">
-        <v>-1.211777E-9</v>
-      </c>
-      <c r="L8" s="14">
-        <v>-3.9892539999999998E-7</v>
-      </c>
-      <c r="M8" s="19">
-        <v>-8.9003790000000003E-12</v>
-      </c>
-      <c r="N8" s="14">
-        <v>-2.9840319999999999E-7</v>
-      </c>
-      <c r="O8" s="19">
-        <v>-1.405273E-9</v>
-      </c>
-      <c r="P8" s="14">
-        <v>1.0491310000000001E-6</v>
-      </c>
-      <c r="Q8" s="19">
-        <v>-7.9281010000000001E-10</v>
-      </c>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
+      <c r="F8" s="15">
+        <v>7.2988819999999996E-6</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="Q8" s="1"/>
       <c r="T8" s="16">
-        <v>0</v>
-      </c>
-      <c r="U8" s="7">
-        <v>-11.827999999999999</v>
-      </c>
+        <v>3.0045859994206702E-5</v>
+      </c>
+      <c r="U8" s="11"/>
       <c r="V8" s="14">
-        <v>5.0456950000000003E-6</v>
-      </c>
-      <c r="W8" s="17">
-        <v>1.9737589999999999E-8</v>
-      </c>
-      <c r="X8" s="13">
-        <v>2.8652589999999998E-6</v>
-      </c>
-      <c r="Y8" s="13">
-        <v>5.7646499999999999E-9</v>
-      </c>
-      <c r="Z8" s="13">
-        <v>2.7745509999999998E-6</v>
-      </c>
-      <c r="AA8" s="13">
-        <v>5.2740920000000002E-9</v>
-      </c>
-      <c r="AB8" s="13">
-        <v>2.8472040000000001E-6</v>
-      </c>
-      <c r="AC8" s="13">
-        <v>5.6058049999999998E-9</v>
-      </c>
-      <c r="AD8" s="13">
-        <v>2.876904E-6</v>
-      </c>
-      <c r="AE8" s="13">
-        <v>5.6761980000000001E-9</v>
-      </c>
-      <c r="AF8" s="13">
-        <v>3.1231100000000001E-6</v>
-      </c>
-      <c r="AG8" s="13">
-        <v>6.9044130000000003E-9</v>
-      </c>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="12">
-        <v>0</v>
-      </c>
+        <v>4.1156820000000002E-6</v>
+      </c>
+      <c r="W8" s="11"/>
       <c r="AK8" s="9">
-        <v>146998.79999999999</v>
-      </c>
-      <c r="AL8" s="3">
-        <v>-293872.59999999998</v>
+        <v>138338.79999999999</v>
+      </c>
+      <c r="AL8" s="7">
+        <v>-276658.3</v>
       </c>
       <c r="AM8" s="7">
-        <f>AL8-AL3</f>
-        <v>394.5</v>
-      </c>
-      <c r="AN8" s="3"/>
-    </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.6">
+        <f>AL8-AL9</f>
+        <v>883.70000000001164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="12">
-        <v>2.4372280000000001E-4</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="P9" s="6"/>
+      <c r="F9" s="15">
+        <v>3.2145260000000002E-6</v>
+      </c>
+      <c r="G9" s="15">
+        <v>2.3274919999999999E-6</v>
+      </c>
       <c r="T9" s="16">
-        <v>5.87857091760149E-9</v>
-      </c>
-      <c r="U9" s="11"/>
+        <v>2.83092015754849E-5</v>
+      </c>
+      <c r="U9" s="7">
+        <v>5.7800256642912801E-2</v>
+      </c>
       <c r="V9" s="14">
-        <v>1.895795E-6</v>
-      </c>
-      <c r="W9" s="11"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
-      <c r="AH9" s="6"/>
-      <c r="AI9" s="6"/>
+        <v>3.9973690000000003E-6</v>
+      </c>
+      <c r="W9" s="17">
+        <v>7.6722040000000003E-8</v>
+      </c>
+      <c r="AJ9" s="12">
+        <v>3.0125049999999999E-196</v>
+      </c>
       <c r="AK9" s="9">
-        <v>138227</v>
+        <v>138785.4</v>
       </c>
       <c r="AL9" s="7">
-        <v>-276434.7</v>
+        <v>-277542</v>
       </c>
       <c r="AM9" s="7">
-        <f>AL9-AL10</f>
-        <v>9269.2999999999884</v>
-      </c>
-    </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>88</v>
@@ -1690,43 +1685,51 @@
       <c r="E10" s="6">
         <v>1</v>
       </c>
-      <c r="F10" s="12">
-        <v>1.207442E-4</v>
-      </c>
-      <c r="G10" s="15">
-        <v>4.8142030000000003E-5</v>
-      </c>
+      <c r="F10" s="15">
+        <v>3.3345590000000002E-6</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="P10" s="6"/>
       <c r="T10" s="16">
-        <v>3.1635606805084E-9</v>
-      </c>
-      <c r="U10" s="7">
-        <v>-2.1146910183925001</v>
-      </c>
+        <v>3.4124045551786302E-5</v>
+      </c>
+      <c r="U10" s="11"/>
       <c r="V10" s="14">
-        <v>1.7627990000000001E-6</v>
-      </c>
-      <c r="W10" s="17">
-        <v>4.2403709999999999E-7</v>
-      </c>
-      <c r="AJ10" s="12">
-        <v>0</v>
-      </c>
+        <v>3.8283159999999997E-7</v>
+      </c>
+      <c r="W10" s="11"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
       <c r="AK10" s="9">
-        <v>142866.4</v>
+        <v>140079</v>
       </c>
       <c r="AL10" s="7">
-        <v>-285704</v>
+        <v>-280138.8</v>
       </c>
       <c r="AM10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.6">
+        <f>AL10-AL11</f>
+        <v>3817.4000000000233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>88</v>
@@ -1734,52 +1737,43 @@
       <c r="E11" s="6">
         <v>1</v>
       </c>
-      <c r="F11" s="18">
-        <v>1.2082419999999999E-4</v>
-      </c>
-      <c r="G11" s="19">
-        <v>4.8137979999999997E-5</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="R11" s="15">
-        <v>-5.0284669999999998E-17</v>
-      </c>
-      <c r="S11" s="7"/>
+      <c r="F11" s="15">
+        <v>2.5961719999999999E-6</v>
+      </c>
+      <c r="G11" s="15">
+        <v>4.221837E-5</v>
+      </c>
       <c r="T11" s="16">
-        <v>0</v>
-      </c>
-      <c r="U11" s="3">
-        <v>-2.1160000000000001</v>
+        <v>2.64483159928359E-5</v>
+      </c>
+      <c r="U11" s="7">
+        <v>0.22493609520337901</v>
       </c>
       <c r="V11" s="14">
-        <v>1.774321E-6</v>
-      </c>
-      <c r="W11" s="20">
-        <v>4.2417150000000001E-7</v>
-      </c>
-      <c r="AH11" s="13">
-        <v>1.264939E-16</v>
+        <v>3.3723299999999999E-7</v>
+      </c>
+      <c r="W11" s="17">
+        <v>6.395125E-7</v>
       </c>
       <c r="AJ11" s="12">
         <v>0</v>
       </c>
       <c r="AK11" s="9">
-        <v>142830.79999999999</v>
-      </c>
-      <c r="AL11" s="3">
-        <v>-285623.2</v>
+        <v>141992.5</v>
+      </c>
+      <c r="AL11" s="7">
+        <v>-283956.2</v>
       </c>
       <c r="AM11" s="7">
-        <f>AL11-AL10</f>
-        <v>80.799999999988358</v>
-      </c>
-    </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>88</v>
@@ -1788,139 +1782,108 @@
         <v>1</v>
       </c>
       <c r="F12" s="18">
-        <v>1.217924E-4</v>
-      </c>
-      <c r="G12" s="19">
-        <v>4.7909640000000002E-5</v>
-      </c>
+        <v>2.4070419999999999E-6</v>
+      </c>
+      <c r="G12" s="18">
+        <v>4.2211559999999998E-5</v>
+      </c>
+      <c r="H12" s="3"/>
       <c r="R12" s="15">
-        <v>-6.8954749999999999E-16</v>
-      </c>
-      <c r="S12" s="15">
-        <v>1.9868410000000001E-16</v>
-      </c>
+        <v>1.4603160000000001E-16</v>
+      </c>
+      <c r="S12" s="7"/>
       <c r="T12" s="16">
-        <v>0</v>
+        <v>2.64448981936799E-5</v>
       </c>
       <c r="U12" s="3">
-        <v>-2.1230000000000002</v>
+        <v>0.22503625329132301</v>
       </c>
       <c r="V12" s="14">
-        <v>1.840844E-6</v>
-      </c>
-      <c r="W12" s="20">
-        <v>4.3965759999999998E-7</v>
-      </c>
-      <c r="AH12" s="11">
-        <v>3.4802060000000002E-16</v>
-      </c>
-      <c r="AI12" s="11">
-        <v>1.007692E-16</v>
+        <v>3.6352519999999998E-7</v>
+      </c>
+      <c r="W12" s="19">
+        <v>6.3951110000000001E-7</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>1.048256E-16</v>
       </c>
       <c r="AJ12" s="12">
         <v>0</v>
       </c>
       <c r="AK12" s="9">
-        <v>142796.79999999999</v>
+        <v>141993.5</v>
       </c>
       <c r="AL12" s="3">
-        <v>-285545.59999999998</v>
+        <v>-283948.5</v>
       </c>
       <c r="AM12" s="7">
-        <f>AL12-AL10</f>
-        <v>158.40000000002328</v>
-      </c>
-    </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.6">
+        <f>AL12-AL11</f>
+        <v>7.7000000000116415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="E13" s="6">
         <v>1</v>
       </c>
-      <c r="F13" s="12">
-        <v>1.212574E-4</v>
-      </c>
-      <c r="G13" s="15">
-        <v>4.8125409999999999E-5</v>
-      </c>
-      <c r="H13" s="14">
-        <v>-5.0067549999999999E-7</v>
-      </c>
-      <c r="J13" s="14">
-        <v>-6.8232980000000001E-7</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="14">
-        <v>6.8561190000000002E-8</v>
-      </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="14">
-        <v>-4.5533689999999998E-7</v>
-      </c>
-      <c r="O13" s="3"/>
-      <c r="P13" s="14">
-        <v>-1.239229E-7</v>
+      <c r="F13" s="18">
+        <v>1.9184589999999999E-6</v>
+      </c>
+      <c r="G13" s="18">
+        <v>4.2371640000000002E-5</v>
+      </c>
+      <c r="R13" s="15">
+        <v>5.2428789999999997E-16</v>
+      </c>
+      <c r="S13" s="15">
+        <v>-1.6415259999999999E-16</v>
       </c>
       <c r="T13" s="16">
-        <v>0</v>
+        <v>2.64352986576014E-5</v>
       </c>
       <c r="U13" s="3">
-        <v>-2.113</v>
+        <v>0.22531756624592</v>
       </c>
       <c r="V13" s="14">
-        <v>2.471824E-6</v>
-      </c>
-      <c r="W13" s="17">
-        <v>4.2424139999999999E-7</v>
-      </c>
-      <c r="X13" s="13">
-        <v>1.801723E-6</v>
-      </c>
-      <c r="Z13" s="13">
-        <v>1.7422279999999999E-6</v>
-      </c>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13">
-        <v>1.771817E-6</v>
-      </c>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13">
-        <v>1.7945060000000001E-6</v>
-      </c>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13">
-        <v>1.9508929999999998E-6</v>
+        <v>4.1939510000000002E-7</v>
+      </c>
+      <c r="W13" s="19">
+        <v>6.4308089999999999E-7</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>1.929409E-16</v>
+      </c>
+      <c r="AI13" s="11">
+        <v>7.0299460000000002E-17</v>
       </c>
       <c r="AJ13" s="12">
         <v>0</v>
       </c>
       <c r="AK13" s="9">
-        <v>142802.1</v>
-      </c>
-      <c r="AL13" s="7">
-        <v>-285527.2</v>
+        <v>141996.20000000001</v>
+      </c>
+      <c r="AL13" s="3">
+        <v>-283944.40000000002</v>
       </c>
       <c r="AM13" s="7">
-        <f>AL13-AL10</f>
-        <v>176.79999999998836</v>
-      </c>
-    </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.6">
+        <f>AL13-AL11</f>
+        <v>11.799999999988358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>88</v>
@@ -1931,187 +1894,265 @@
       <c r="E14" s="6">
         <v>1</v>
       </c>
-      <c r="F14" s="12">
-        <v>1.2496849999999999E-4</v>
+      <c r="F14" s="15">
+        <v>3.9920619999999997E-6</v>
       </c>
       <c r="G14" s="15">
-        <v>4.7091449999999998E-5</v>
+        <v>4.2195179999999997E-5</v>
       </c>
       <c r="H14" s="14">
-        <v>-5.884273E-6</v>
-      </c>
-      <c r="I14" s="19">
-        <v>1.6358530000000001E-6</v>
+        <v>-6.6159469999999999E-7</v>
       </c>
       <c r="J14" s="14">
-        <v>-4.3947340000000001E-6</v>
-      </c>
-      <c r="K14" s="19">
-        <v>1.11985E-6</v>
-      </c>
+        <v>-1.607735E-6</v>
+      </c>
+      <c r="K14" s="3"/>
       <c r="L14" s="14">
-        <v>-1.507701E-6</v>
-      </c>
-      <c r="M14" s="19">
-        <v>4.7679579999999999E-7</v>
-      </c>
+        <v>-8.8234040000000002E-7</v>
+      </c>
+      <c r="M14" s="3"/>
       <c r="N14" s="14">
-        <v>-2.9295539999999999E-6</v>
-      </c>
-      <c r="O14" s="19">
-        <v>7.2583220000000002E-7</v>
-      </c>
+        <v>-1.3707930000000001E-6</v>
+      </c>
+      <c r="O14" s="3"/>
       <c r="P14" s="14">
-        <v>-1.867581E-7</v>
-      </c>
-      <c r="Q14" s="19">
-        <v>2.2377409999999999E-7</v>
-      </c>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
+        <v>-1.0431480000000001E-6</v>
+      </c>
       <c r="T14" s="16">
+        <v>2.6433408575398099E-5</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0.22537295481945299</v>
+      </c>
+      <c r="V14" s="14">
+        <v>1.5955189999999999E-6</v>
+      </c>
+      <c r="W14" s="17">
+        <v>6.394984E-7</v>
+      </c>
+      <c r="X14" s="13">
+        <v>1.607084E-6</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>1.568281E-6</v>
+      </c>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13">
+        <v>1.591588E-6</v>
+      </c>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13">
+        <v>1.618284E-6</v>
+      </c>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13">
+        <v>1.816759E-6</v>
+      </c>
+      <c r="AJ14" s="12">
         <v>0</v>
       </c>
-      <c r="U14" s="7">
-        <v>-2.121</v>
-      </c>
-      <c r="V14" s="14">
-        <v>4.833484E-6</v>
-      </c>
-      <c r="W14" s="17">
-        <v>1.3031569999999999E-6</v>
-      </c>
-      <c r="X14" s="13">
-        <v>4.6144759999999998E-6</v>
-      </c>
-      <c r="Y14" s="13">
-        <v>1.2798860000000001E-6</v>
-      </c>
-      <c r="Z14" s="13">
-        <v>4.5515509999999999E-6</v>
-      </c>
-      <c r="AA14" s="13">
-        <v>1.2415530000000001E-6</v>
-      </c>
-      <c r="AB14" s="13">
-        <v>4.7059820000000003E-6</v>
-      </c>
-      <c r="AC14" s="13">
-        <v>1.296906E-6</v>
-      </c>
-      <c r="AD14" s="13">
-        <v>4.6888190000000002E-6</v>
-      </c>
-      <c r="AE14" s="13">
-        <v>1.286711E-6</v>
-      </c>
-      <c r="AF14" s="13">
-        <v>6.0461469999999998E-6</v>
-      </c>
-      <c r="AG14" s="13">
-        <v>1.5579459999999999E-6</v>
-      </c>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="12">
-        <v>2.9294400000000002E-274</v>
-      </c>
       <c r="AK14" s="9">
-        <v>142738.9</v>
+        <v>141996.79999999999</v>
       </c>
       <c r="AL14" s="3">
-        <v>-285352.90000000002</v>
+        <v>-283916.59999999998</v>
       </c>
       <c r="AM14" s="7">
-        <f>AL14-AL10</f>
-        <v>351.09999999997672</v>
-      </c>
-      <c r="AN14" s="6"/>
-      <c r="AO14" s="6"/>
-      <c r="AQ14" s="6"/>
-      <c r="AS14" s="6"/>
-      <c r="AU14" s="6"/>
-      <c r="AW14" s="6"/>
-      <c r="AY14" s="6"/>
-      <c r="AZ14" s="6"/>
-      <c r="BA14" s="16"/>
-      <c r="BB14" s="11"/>
-      <c r="BC14" s="14"/>
-      <c r="BD14" s="11"/>
-      <c r="BE14" s="6"/>
-      <c r="BF14" s="6"/>
-      <c r="BG14" s="6"/>
-      <c r="BH14" s="6"/>
-      <c r="BI14" s="6"/>
-      <c r="BJ14" s="6"/>
-      <c r="BK14" s="6"/>
-      <c r="BL14" s="6"/>
-      <c r="BM14" s="6"/>
-      <c r="BN14" s="6"/>
-      <c r="BO14" s="6"/>
-      <c r="BP14" s="6"/>
-      <c r="BQ14" s="6"/>
-      <c r="BR14" s="9"/>
-      <c r="BS14" s="7"/>
-      <c r="BT14" s="7"/>
-    </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.6">
-      <c r="F15" s="12"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="19"/>
+        <f>AL14-AL11</f>
+        <v>39.600000000034925</v>
+      </c>
+    </row>
+    <row r="15" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15">
+        <v>2.9719209999999998E-6</v>
+      </c>
+      <c r="G15" s="15">
+        <v>4.2632149999999998E-5</v>
+      </c>
+      <c r="H15" s="14">
+        <v>1.5843729999999999E-6</v>
+      </c>
+      <c r="I15" s="18">
+        <v>-1.0181179999999999E-6</v>
+      </c>
+      <c r="J15" s="14">
+        <v>-8.2301469999999996E-7</v>
+      </c>
+      <c r="K15" s="18">
+        <v>-3.5825309999999999E-7</v>
+      </c>
+      <c r="L15" s="14">
+        <v>5.9403159999999997E-8</v>
+      </c>
+      <c r="M15" s="18">
+        <v>-4.439723E-7</v>
+      </c>
+      <c r="N15" s="14">
+        <v>-2.1269969999999999E-7</v>
+      </c>
+      <c r="O15" s="18">
+        <v>-4.9838619999999998E-7</v>
+      </c>
+      <c r="P15" s="14">
+        <v>-4.1003739999999998E-7</v>
+      </c>
+      <c r="Q15" s="18">
+        <v>-3.2311100000000001E-7</v>
+      </c>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
-      <c r="AM15" s="12"/>
-      <c r="AN15" s="15"/>
-      <c r="AO15" s="10"/>
-      <c r="AQ15" s="10"/>
-      <c r="AS15" s="10"/>
-      <c r="AU15" s="10"/>
-      <c r="AW15" s="10"/>
+      <c r="T15" s="16">
+        <v>2.6424608981532099E-5</v>
+      </c>
+      <c r="U15" s="7">
+        <v>0.22563082558839101</v>
+      </c>
+      <c r="V15" s="14">
+        <v>3.0651710000000002E-6</v>
+      </c>
+      <c r="W15" s="17">
+        <v>1.241897E-6</v>
+      </c>
+      <c r="X15" s="13">
+        <v>3.109891E-6</v>
+      </c>
+      <c r="Y15" s="13">
+        <v>1.1014379999999999E-6</v>
+      </c>
+      <c r="Z15" s="13">
+        <v>3.0670800000000001E-6</v>
+      </c>
+      <c r="AA15" s="13">
+        <v>1.073324E-6</v>
+      </c>
+      <c r="AB15" s="13">
+        <v>3.1886779999999999E-6</v>
+      </c>
+      <c r="AC15" s="13">
+        <v>1.113292E-6</v>
+      </c>
+      <c r="AD15" s="13">
+        <v>3.22021E-6</v>
+      </c>
+      <c r="AE15" s="13">
+        <v>1.1218589999999999E-6</v>
+      </c>
+      <c r="AF15" s="13">
+        <v>3.9157170000000003E-6</v>
+      </c>
+      <c r="AG15" s="13">
+        <v>1.2606550000000001E-6</v>
+      </c>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="12">
+        <v>1.096173E-24</v>
+      </c>
+      <c r="AK15" s="9">
+        <v>141999.29999999999</v>
+      </c>
+      <c r="AL15" s="3">
+        <v>-283873.5</v>
+      </c>
+      <c r="AM15" s="7">
+        <f>AL15-AL11</f>
+        <v>82.700000000011642</v>
+      </c>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AQ15" s="6"/>
+      <c r="AS15" s="6"/>
+      <c r="AU15" s="6"/>
+      <c r="AW15" s="6"/>
       <c r="AY15" s="6"/>
       <c r="AZ15" s="6"/>
       <c r="BA15" s="16"/>
-      <c r="BB15" s="7"/>
+      <c r="BB15" s="11"/>
       <c r="BC15" s="14"/>
-      <c r="BD15" s="17"/>
-      <c r="BE15" s="10"/>
-      <c r="BF15" s="10"/>
-      <c r="BG15" s="10"/>
-      <c r="BH15" s="10"/>
-      <c r="BI15" s="10"/>
-      <c r="BJ15" s="10"/>
-      <c r="BK15" s="10"/>
-      <c r="BL15" s="10"/>
-      <c r="BM15" s="10"/>
-      <c r="BN15" s="10"/>
-      <c r="BO15" s="10"/>
-      <c r="BP15" s="10"/>
-      <c r="BQ15" s="12"/>
+      <c r="BD15" s="11"/>
+      <c r="BE15" s="6"/>
+      <c r="BF15" s="6"/>
+      <c r="BG15" s="6"/>
+      <c r="BH15" s="6"/>
+      <c r="BI15" s="6"/>
+      <c r="BJ15" s="6"/>
+      <c r="BK15" s="6"/>
+      <c r="BL15" s="6"/>
+      <c r="BM15" s="6"/>
+      <c r="BN15" s="6"/>
+      <c r="BO15" s="6"/>
+      <c r="BP15" s="6"/>
+      <c r="BQ15" s="6"/>
       <c r="BR15" s="9"/>
       <c r="BS15" s="7"/>
       <c r="BT15" s="7"/>
     </row>
-    <row r="16" spans="1:72" x14ac:dyDescent="0.6">
-      <c r="F16" s="12"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="14"/>
-      <c r="AM16" s="12"/>
+    <row r="16" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="15">
+        <v>3.3301659999999998E-6</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="T16" s="16">
+        <v>3.3450291488603803E-5</v>
+      </c>
+      <c r="U16" s="11"/>
+      <c r="V16" s="14">
+        <v>3.7903480000000002E-7</v>
+      </c>
+      <c r="W16" s="11"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AK16" s="9">
+        <v>139423.1</v>
+      </c>
+      <c r="AL16" s="7">
+        <v>-278827</v>
+      </c>
+      <c r="AM16" s="7">
+        <f>AL16-AL17</f>
+        <v>3865.4000000000233</v>
+      </c>
       <c r="AN16" s="15"/>
       <c r="AO16" s="10"/>
       <c r="AQ16" s="10"/>
@@ -2141,34 +2182,61 @@
       <c r="BS16" s="7"/>
       <c r="BT16" s="7"/>
     </row>
-    <row r="17" spans="6:72" x14ac:dyDescent="0.6">
-      <c r="F17" s="12"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="AM17" s="18"/>
-      <c r="AN17" s="19"/>
-      <c r="AO17" s="3"/>
+    <row r="17" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15">
+        <v>2.5941849999999999E-6</v>
+      </c>
+      <c r="G17" s="15">
+        <v>4.208053E-5</v>
+      </c>
+      <c r="T17" s="16">
+        <v>2.5802321243027999E-5</v>
+      </c>
+      <c r="U17" s="7">
+        <v>0.22863687893992601</v>
+      </c>
+      <c r="V17" s="14">
+        <v>3.3309090000000001E-7</v>
+      </c>
+      <c r="W17" s="17">
+        <v>6.3267450000000003E-7</v>
+      </c>
+      <c r="AJ17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="9">
+        <v>141360.6</v>
+      </c>
+      <c r="AL17" s="7">
+        <v>-282692.40000000002</v>
+      </c>
+      <c r="AM17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="15"/>
+      <c r="AO17" s="10"/>
       <c r="AQ17" s="10"/>
       <c r="AS17" s="10"/>
       <c r="AU17" s="10"/>
       <c r="AW17" s="10"/>
-      <c r="AY17" s="15"/>
-      <c r="AZ17" s="7"/>
+      <c r="AY17" s="6"/>
+      <c r="AZ17" s="6"/>
       <c r="BA17" s="16"/>
-      <c r="BB17" s="3"/>
+      <c r="BB17" s="7"/>
       <c r="BC17" s="14"/>
-      <c r="BD17" s="20"/>
+      <c r="BD17" s="17"/>
       <c r="BE17" s="10"/>
       <c r="BF17" s="10"/>
       <c r="BG17" s="10"/>
@@ -2179,166 +2247,149 @@
       <c r="BL17" s="10"/>
       <c r="BM17" s="10"/>
       <c r="BN17" s="10"/>
-      <c r="BO17" s="13"/>
+      <c r="BO17" s="10"/>
       <c r="BP17" s="10"/>
       <c r="BQ17" s="12"/>
       <c r="BR17" s="9"/>
-      <c r="BS17" s="3"/>
+      <c r="BS17" s="7"/>
       <c r="BT17" s="7"/>
     </row>
-    <row r="18" spans="6:72" x14ac:dyDescent="0.6">
-      <c r="F18" s="12"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="14"/>
-      <c r="AM18" s="18"/>
-      <c r="AN18" s="19"/>
-      <c r="AO18" s="10"/>
-      <c r="AQ18" s="10"/>
-      <c r="AS18" s="10"/>
-      <c r="AU18" s="10"/>
-      <c r="AW18" s="10"/>
-      <c r="AY18" s="15"/>
-      <c r="AZ18" s="15"/>
-      <c r="BA18" s="16"/>
-      <c r="BB18" s="3"/>
-      <c r="BC18" s="14"/>
-      <c r="BD18" s="20"/>
-      <c r="BE18" s="10"/>
-      <c r="BF18" s="10"/>
-      <c r="BG18" s="10"/>
-      <c r="BH18" s="10"/>
-      <c r="BI18" s="10"/>
-      <c r="BJ18" s="10"/>
-      <c r="BK18" s="10"/>
-      <c r="BL18" s="10"/>
-      <c r="BM18" s="10"/>
-      <c r="BN18" s="10"/>
-      <c r="BO18" s="11"/>
-      <c r="BP18" s="11"/>
-      <c r="BQ18" s="12"/>
-      <c r="BR18" s="9"/>
-      <c r="BS18" s="3"/>
-      <c r="BT18" s="7"/>
-    </row>
-    <row r="19" spans="6:72" x14ac:dyDescent="0.6">
-      <c r="F19" s="12"/>
+    <row r="18" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="H18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="7"/>
+      <c r="AM18" s="7"/>
+    </row>
+    <row r="19" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="15"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="AM19" s="12"/>
-      <c r="AN19" s="15"/>
-      <c r="AO19" s="14"/>
-      <c r="AQ19" s="14"/>
-      <c r="AR19" s="3"/>
-      <c r="AS19" s="14"/>
-      <c r="AT19" s="3"/>
-      <c r="AU19" s="14"/>
-      <c r="AV19" s="3"/>
-      <c r="AW19" s="14"/>
-      <c r="AY19" s="6"/>
-      <c r="AZ19" s="6"/>
-      <c r="BA19" s="16"/>
-      <c r="BB19" s="3"/>
-      <c r="BC19" s="14"/>
-      <c r="BD19" s="17"/>
-      <c r="BE19" s="13"/>
-      <c r="BF19" s="10"/>
-      <c r="BG19" s="13"/>
-      <c r="BH19" s="13"/>
-      <c r="BI19" s="13"/>
-      <c r="BJ19" s="13"/>
-      <c r="BK19" s="13"/>
-      <c r="BL19" s="13"/>
-      <c r="BM19" s="13"/>
-      <c r="BN19" s="10"/>
-      <c r="BO19" s="10"/>
-      <c r="BP19" s="10"/>
-      <c r="BQ19" s="12"/>
-      <c r="BR19" s="9"/>
-      <c r="BS19" s="7"/>
-      <c r="BT19" s="7"/>
-    </row>
-    <row r="20" spans="6:72" x14ac:dyDescent="0.6">
-      <c r="F20" s="12"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="14"/>
-      <c r="AM20" s="12"/>
-      <c r="AN20" s="15"/>
-      <c r="AO20" s="14"/>
-      <c r="AP20" s="19"/>
-      <c r="AQ20" s="14"/>
-      <c r="AR20" s="19"/>
-      <c r="AS20" s="14"/>
-      <c r="AT20" s="19"/>
-      <c r="AU20" s="14"/>
-      <c r="AV20" s="19"/>
-      <c r="AW20" s="14"/>
-      <c r="AX20" s="19"/>
-      <c r="AY20" s="9"/>
-      <c r="AZ20" s="9"/>
-      <c r="BA20" s="16"/>
-      <c r="BB20" s="7"/>
-      <c r="BC20" s="14"/>
-      <c r="BD20" s="17"/>
-      <c r="BE20" s="13"/>
-      <c r="BF20" s="13"/>
-      <c r="BG20" s="13"/>
-      <c r="BH20" s="13"/>
-      <c r="BI20" s="13"/>
-      <c r="BJ20" s="13"/>
-      <c r="BK20" s="13"/>
-      <c r="BL20" s="13"/>
-      <c r="BM20" s="13"/>
-      <c r="BN20" s="13"/>
-      <c r="BO20" s="13"/>
-      <c r="BP20" s="13"/>
-      <c r="BQ20" s="12"/>
-      <c r="BR20" s="9"/>
-      <c r="BS20" s="3"/>
-      <c r="BT20" s="7"/>
-    </row>
-    <row r="21" spans="6:72" x14ac:dyDescent="0.6">
-      <c r="F21" s="12"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-    </row>
-    <row r="22" spans="6:72" x14ac:dyDescent="0.6">
-      <c r="F22" s="12"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="17"/>
+      <c r="AJ19" s="12"/>
+      <c r="AK19" s="9"/>
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="7"/>
+    </row>
+    <row r="20" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="3"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="19"/>
+      <c r="AH20" s="13"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="7"/>
+    </row>
+    <row r="21" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="19"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="7"/>
+    </row>
+    <row r="22" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="14"/>
       <c r="J22" s="14"/>
@@ -2348,146 +2399,332 @@
       <c r="N22" s="14"/>
       <c r="O22" s="3"/>
       <c r="P22" s="14"/>
-    </row>
-    <row r="23" spans="6:72" x14ac:dyDescent="0.6">
-      <c r="F23" s="12"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="7"/>
+    </row>
+    <row r="23" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="19"/>
+      <c r="I23" s="18"/>
       <c r="J23" s="14"/>
-      <c r="K23" s="19"/>
+      <c r="K23" s="18"/>
       <c r="L23" s="14"/>
-      <c r="M23" s="19"/>
+      <c r="M23" s="18"/>
       <c r="N23" s="14"/>
-      <c r="O23" s="19"/>
+      <c r="O23" s="18"/>
       <c r="P23" s="14"/>
-      <c r="Q23" s="19"/>
+      <c r="Q23" s="18"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
-    </row>
-    <row r="24" spans="6:72" x14ac:dyDescent="0.6">
-      <c r="F24" s="12"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="14"/>
-    </row>
-    <row r="25" spans="6:72" x14ac:dyDescent="0.6">
-      <c r="F25" s="12"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="12"/>
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="6"/>
+      <c r="AO23" s="6"/>
+      <c r="AQ23" s="6"/>
+      <c r="AS23" s="6"/>
+      <c r="AU23" s="6"/>
+      <c r="AW23" s="6"/>
+      <c r="AY23" s="6"/>
+      <c r="AZ23" s="6"/>
+      <c r="BA23" s="16"/>
+      <c r="BB23" s="11"/>
+      <c r="BC23" s="14"/>
+      <c r="BD23" s="11"/>
+      <c r="BE23" s="6"/>
+      <c r="BF23" s="6"/>
+      <c r="BG23" s="6"/>
+      <c r="BH23" s="6"/>
+      <c r="BI23" s="6"/>
+      <c r="BJ23" s="6"/>
+      <c r="BK23" s="6"/>
+      <c r="BL23" s="6"/>
+      <c r="BM23" s="6"/>
+      <c r="BN23" s="6"/>
+      <c r="BO23" s="6"/>
+      <c r="BP23" s="6"/>
+      <c r="BQ23" s="6"/>
+      <c r="BR23" s="9"/>
+      <c r="BS23" s="7"/>
+      <c r="BT23" s="7"/>
+    </row>
+    <row r="24" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="H24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="6"/>
+      <c r="AK24" s="9"/>
+      <c r="AL24" s="7"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="15"/>
+      <c r="AO24" s="10"/>
+      <c r="AQ24" s="10"/>
+      <c r="AS24" s="10"/>
+      <c r="AU24" s="10"/>
+      <c r="AW24" s="10"/>
+      <c r="AY24" s="6"/>
+      <c r="AZ24" s="6"/>
+      <c r="BA24" s="16"/>
+      <c r="BB24" s="7"/>
+      <c r="BC24" s="14"/>
+      <c r="BD24" s="17"/>
+      <c r="BE24" s="10"/>
+      <c r="BF24" s="10"/>
+      <c r="BG24" s="10"/>
+      <c r="BH24" s="10"/>
+      <c r="BI24" s="10"/>
+      <c r="BJ24" s="10"/>
+      <c r="BK24" s="10"/>
+      <c r="BL24" s="10"/>
+      <c r="BM24" s="10"/>
+      <c r="BN24" s="10"/>
+      <c r="BO24" s="10"/>
+      <c r="BP24" s="10"/>
+      <c r="BQ24" s="12"/>
+      <c r="BR24" s="9"/>
+      <c r="BS24" s="7"/>
+      <c r="BT24" s="7"/>
+    </row>
+    <row r="25" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="15"/>
       <c r="G25" s="15"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-    </row>
-    <row r="26" spans="6:72" x14ac:dyDescent="0.6">
+      <c r="T25" s="16"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="17"/>
+      <c r="AJ25" s="12"/>
+      <c r="AK25" s="9"/>
+      <c r="AL25" s="7"/>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="15"/>
+      <c r="AO25" s="10"/>
+      <c r="AQ25" s="10"/>
+      <c r="AS25" s="10"/>
+      <c r="AU25" s="10"/>
+      <c r="AW25" s="10"/>
+      <c r="AY25" s="6"/>
+      <c r="AZ25" s="6"/>
+      <c r="BA25" s="16"/>
+      <c r="BB25" s="7"/>
+      <c r="BC25" s="14"/>
+      <c r="BD25" s="17"/>
+      <c r="BE25" s="10"/>
+      <c r="BF25" s="10"/>
+      <c r="BG25" s="10"/>
+      <c r="BH25" s="10"/>
+      <c r="BI25" s="10"/>
+      <c r="BJ25" s="10"/>
+      <c r="BK25" s="10"/>
+      <c r="BL25" s="10"/>
+      <c r="BM25" s="10"/>
+      <c r="BN25" s="10"/>
+      <c r="BO25" s="10"/>
+      <c r="BP25" s="10"/>
+      <c r="BQ25" s="12"/>
+      <c r="BR25" s="9"/>
+      <c r="BS25" s="7"/>
+      <c r="BT25" s="7"/>
+    </row>
+    <row r="26" spans="1:72" x14ac:dyDescent="0.2">
       <c r="F26" s="12"/>
       <c r="G26" s="15"/>
       <c r="H26" s="14"/>
+      <c r="I26" s="18"/>
       <c r="J26" s="14"/>
-      <c r="K26" s="3"/>
+      <c r="K26" s="18"/>
       <c r="L26" s="14"/>
-      <c r="M26" s="3"/>
+      <c r="M26" s="18"/>
       <c r="N26" s="14"/>
-      <c r="O26" s="3"/>
+      <c r="O26" s="18"/>
       <c r="P26" s="14"/>
-    </row>
-    <row r="27" spans="6:72" x14ac:dyDescent="0.6">
+      <c r="Q26" s="18"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+    </row>
+    <row r="27" spans="1:72" x14ac:dyDescent="0.2">
       <c r="F27" s="12"/>
       <c r="G27" s="15"/>
       <c r="H27" s="14"/>
-      <c r="I27" s="19"/>
       <c r="J27" s="14"/>
-      <c r="K27" s="19"/>
+      <c r="K27" s="3"/>
       <c r="L27" s="14"/>
-      <c r="M27" s="19"/>
+      <c r="M27" s="3"/>
       <c r="N27" s="14"/>
-      <c r="O27" s="19"/>
+      <c r="O27" s="3"/>
       <c r="P27" s="14"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-    </row>
-    <row r="28" spans="6:72" x14ac:dyDescent="0.6">
+    </row>
+    <row r="28" spans="1:72" x14ac:dyDescent="0.2">
       <c r="F28" s="12"/>
       <c r="G28" s="15"/>
       <c r="H28" s="14"/>
+      <c r="I28" s="18"/>
       <c r="J28" s="14"/>
-      <c r="K28" s="3"/>
+      <c r="K28" s="18"/>
       <c r="L28" s="14"/>
-      <c r="M28" s="3"/>
+      <c r="M28" s="18"/>
       <c r="N28" s="14"/>
-      <c r="O28" s="3"/>
+      <c r="O28" s="18"/>
       <c r="P28" s="14"/>
-    </row>
-    <row r="29" spans="6:72" x14ac:dyDescent="0.6">
+      <c r="Q28" s="18"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+    </row>
+    <row r="29" spans="1:72" x14ac:dyDescent="0.2">
       <c r="F29" s="12"/>
       <c r="G29" s="15"/>
       <c r="H29" s="14"/>
-      <c r="I29" s="19"/>
       <c r="J29" s="14"/>
-      <c r="K29" s="19"/>
+      <c r="K29" s="3"/>
       <c r="L29" s="14"/>
-      <c r="M29" s="19"/>
+      <c r="M29" s="3"/>
       <c r="N29" s="14"/>
-      <c r="O29" s="19"/>
+      <c r="O29" s="3"/>
       <c r="P29" s="14"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-    </row>
-    <row r="30" spans="6:72" x14ac:dyDescent="0.6">
+    </row>
+    <row r="30" spans="1:72" x14ac:dyDescent="0.2">
       <c r="F30" s="12"/>
       <c r="G30" s="15"/>
       <c r="H30" s="14"/>
+      <c r="I30" s="18"/>
       <c r="J30" s="14"/>
-      <c r="K30" s="3"/>
+      <c r="K30" s="18"/>
       <c r="L30" s="14"/>
-      <c r="M30" s="3"/>
+      <c r="M30" s="18"/>
       <c r="N30" s="14"/>
-      <c r="O30" s="3"/>
+      <c r="O30" s="18"/>
       <c r="P30" s="14"/>
-    </row>
-    <row r="31" spans="6:72" x14ac:dyDescent="0.6">
+      <c r="Q30" s="18"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+    </row>
+    <row r="31" spans="1:72" x14ac:dyDescent="0.2">
       <c r="F31" s="12"/>
       <c r="G31" s="15"/>
       <c r="H31" s="14"/>
-      <c r="I31" s="19"/>
       <c r="J31" s="14"/>
-      <c r="K31" s="19"/>
+      <c r="K31" s="3"/>
       <c r="L31" s="14"/>
-      <c r="M31" s="19"/>
+      <c r="M31" s="3"/>
       <c r="N31" s="14"/>
-      <c r="O31" s="19"/>
+      <c r="O31" s="3"/>
       <c r="P31" s="14"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-    </row>
-    <row r="32" spans="6:72" x14ac:dyDescent="0.6">
+    </row>
+    <row r="32" spans="1:72" x14ac:dyDescent="0.2">
       <c r="F32" s="12"/>
       <c r="G32" s="15"/>
       <c r="H32" s="14"/>
+      <c r="I32" s="18"/>
       <c r="J32" s="14"/>
-      <c r="K32" s="3"/>
+      <c r="K32" s="18"/>
       <c r="L32" s="14"/>
-      <c r="M32" s="3"/>
+      <c r="M32" s="18"/>
       <c r="N32" s="14"/>
-      <c r="O32" s="3"/>
+      <c r="O32" s="18"/>
       <c r="P32" s="14"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+    </row>
+    <row r="33" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F33" s="12"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2496,6 +2733,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E46722399A7B5D4590DBCFF250182F33" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="05807d8e6f97dd573643f350d0638d6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="677f5592-671a-486f-9aac-5097e59069f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6fa3647ed1dc35413e65d5d4278d9638" ns3:_="">
     <xsd:import namespace="677f5592-671a-486f-9aac-5097e59069f9"/>
@@ -2665,12 +2908,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2681,6 +2918,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EC47B0-AA78-47A5-9B79-6FFFCCC52CA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="677f5592-671a-486f-9aac-5097e59069f9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F14E613-146B-42BC-87DA-ED927865862D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2698,22 +2951,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EC47B0-AA78-47A5-9B79-6FFFCCC52CA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="677f5592-671a-486f-9aac-5097e59069f9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
   <ds:schemaRefs>

--- a/surya_punctuation_5_26/surya_results_punctuation.xlsx
+++ b/surya_punctuation_5_26/surya_results_punctuation.xlsx
@@ -1041,7 +1041,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2267,15 +2267,21 @@
       <c r="E18" s="6">
         <v>1</v>
       </c>
-      <c r="F18" s="15"/>
+      <c r="F18" s="15">
+        <v>1.418635E-6</v>
+      </c>
       <c r="H18" s="6"/>
       <c r="J18" s="6"/>
       <c r="L18" s="6"/>
       <c r="N18" s="6"/>
       <c r="P18" s="6"/>
-      <c r="T18" s="16"/>
+      <c r="T18" s="16">
+        <v>2.6398465770641999E-5</v>
+      </c>
       <c r="U18" s="11"/>
-      <c r="V18" s="14"/>
+      <c r="V18" s="14">
+        <v>2.7980999999999999E-6</v>
+      </c>
       <c r="W18" s="11"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
@@ -2289,9 +2295,16 @@
       <c r="AG18" s="6"/>
       <c r="AH18" s="6"/>
       <c r="AI18" s="6"/>
-      <c r="AK18" s="9"/>
-      <c r="AL18" s="7"/>
-      <c r="AM18" s="7"/>
+      <c r="AK18" s="9">
+        <v>224585.60000000001</v>
+      </c>
+      <c r="AL18" s="7">
+        <v>-449151</v>
+      </c>
+      <c r="AM18" s="7">
+        <f>AL18-AL19</f>
+        <v>728.79999999998836</v>
+      </c>
     </row>
     <row r="19" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
@@ -2306,16 +2319,36 @@
       <c r="E19" s="6">
         <v>1</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="17"/>
-      <c r="AJ19" s="12"/>
-      <c r="AK19" s="9"/>
-      <c r="AL19" s="7"/>
-      <c r="AM19" s="7"/>
+      <c r="F19" s="15">
+        <v>5.8955639999999996E-7</v>
+      </c>
+      <c r="G19" s="15">
+        <v>8.2916019999999998E-7</v>
+      </c>
+      <c r="T19" s="16">
+        <v>2.5572285740999301E-5</v>
+      </c>
+      <c r="U19" s="7">
+        <v>3.1296516881724697E-2</v>
+      </c>
+      <c r="V19" s="14">
+        <v>2.754192E-6</v>
+      </c>
+      <c r="W19" s="17">
+        <v>3.0263180000000002E-8</v>
+      </c>
+      <c r="AJ19" s="12">
+        <v>1.10375E-162</v>
+      </c>
+      <c r="AK19" s="9">
+        <v>224955</v>
+      </c>
+      <c r="AL19" s="7">
+        <v>-449879.8</v>
+      </c>
+      <c r="AM19" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
@@ -2330,20 +2363,45 @@
       <c r="E20" s="6">
         <v>1</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="F20" s="18">
+        <v>3.0790009999999999E-7</v>
+      </c>
+      <c r="G20" s="18">
+        <v>8.2920169999999996E-7</v>
+      </c>
       <c r="H20" s="3"/>
-      <c r="R20" s="15"/>
+      <c r="R20" s="15">
+        <v>7.5407540000000001E-17</v>
+      </c>
       <c r="S20" s="7"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="19"/>
-      <c r="AH20" s="13"/>
-      <c r="AJ20" s="12"/>
-      <c r="AK20" s="9"/>
-      <c r="AL20" s="3"/>
-      <c r="AM20" s="7"/>
+      <c r="T20" s="16">
+        <v>2.5571251438446201E-5</v>
+      </c>
+      <c r="U20" s="3">
+        <v>3.1335697285688101E-2</v>
+      </c>
+      <c r="V20" s="14">
+        <v>2.7694780000000002E-6</v>
+      </c>
+      <c r="W20" s="19">
+        <v>3.0263249999999998E-8</v>
+      </c>
+      <c r="AH20" s="13">
+        <v>7.7786630000000006E-17</v>
+      </c>
+      <c r="AJ20" s="12">
+        <v>1.066321E-162</v>
+      </c>
+      <c r="AK20" s="9">
+        <v>224955.5</v>
+      </c>
+      <c r="AL20" s="3">
+        <v>-449870.7</v>
+      </c>
+      <c r="AM20" s="7">
+        <f>AL20-AL19</f>
+        <v>9.0999999999767169</v>
+      </c>
     </row>
     <row r="21" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
@@ -2358,20 +2416,49 @@
       <c r="E21" s="6">
         <v>1</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="19"/>
-      <c r="AH21" s="11"/>
-      <c r="AI21" s="11"/>
-      <c r="AJ21" s="12"/>
-      <c r="AK21" s="9"/>
-      <c r="AL21" s="3"/>
-      <c r="AM21" s="7"/>
+      <c r="F21" s="18">
+        <v>3.8284029999999997E-8</v>
+      </c>
+      <c r="G21" s="18">
+        <v>8.2931299999999998E-7</v>
+      </c>
+      <c r="R21" s="15">
+        <v>1.476352E-16</v>
+      </c>
+      <c r="S21" s="15">
+        <v>-9.1035000000000006E-20</v>
+      </c>
+      <c r="T21" s="16">
+        <v>2.5570542860993199E-5</v>
+      </c>
+      <c r="U21" s="3">
+        <v>3.1362538900612899E-2</v>
+      </c>
+      <c r="V21" s="14">
+        <v>2.789809E-6</v>
+      </c>
+      <c r="W21" s="19">
+        <v>3.0263800000000001E-8</v>
+      </c>
+      <c r="AH21" s="11">
+        <v>1.189706E-16</v>
+      </c>
+      <c r="AI21" s="11">
+        <v>1.134572E-19</v>
+      </c>
+      <c r="AJ21" s="12">
+        <v>9.8009930000000002E-163</v>
+      </c>
+      <c r="AK21" s="9">
+        <v>224955.8</v>
+      </c>
+      <c r="AL21" s="3">
+        <v>-449861.3</v>
+      </c>
+      <c r="AM21" s="7">
+        <f>AL21-AL19</f>
+        <v>18.5</v>
+      </c>
     </row>
     <row r="22" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
@@ -2389,32 +2476,73 @@
       <c r="E22" s="6">
         <v>1</v>
       </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="14"/>
-      <c r="J22" s="14"/>
+      <c r="F22" s="15">
+        <v>1.327017E-6</v>
+      </c>
+      <c r="G22" s="15">
+        <v>8.2920099999999996E-7</v>
+      </c>
+      <c r="H22" s="14">
+        <v>-6.7043469999999995E-7</v>
+      </c>
+      <c r="J22" s="14">
+        <v>-9.6465099999999997E-7</v>
+      </c>
       <c r="K22" s="3"/>
-      <c r="L22" s="14"/>
+      <c r="L22" s="14">
+        <v>-9.7591880000000006E-7</v>
+      </c>
       <c r="M22" s="3"/>
-      <c r="N22" s="14"/>
+      <c r="N22" s="14">
+        <v>-1.028042E-6</v>
+      </c>
       <c r="O22" s="3"/>
-      <c r="P22" s="14"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="13"/>
-      <c r="Z22" s="13"/>
+      <c r="P22" s="14">
+        <v>-1.1536559999999999E-6</v>
+      </c>
+      <c r="T22" s="16">
+        <v>2.55704255404822E-5</v>
+      </c>
+      <c r="U22" s="3">
+        <v>3.1366983117646997E-2</v>
+      </c>
+      <c r="V22" s="14">
+        <v>2.9982419999999998E-6</v>
+      </c>
+      <c r="W22" s="17">
+        <v>3.0265650000000002E-8</v>
+      </c>
+      <c r="X22" s="13">
+        <v>1.1994290000000001E-6</v>
+      </c>
+      <c r="Z22" s="13">
+        <v>1.16572E-6</v>
+      </c>
       <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
+      <c r="AB22" s="13">
+        <v>1.183456E-6</v>
+      </c>
       <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
+      <c r="AD22" s="13">
+        <v>1.2042620000000001E-6</v>
+      </c>
       <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AJ22" s="12"/>
-      <c r="AK22" s="9"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="7"/>
+      <c r="AF22" s="13">
+        <v>1.28468E-6</v>
+      </c>
+      <c r="AJ22" s="12">
+        <v>1.131525E-162</v>
+      </c>
+      <c r="AK22" s="9">
+        <v>224955.8</v>
+      </c>
+      <c r="AL22" s="3">
+        <v>-449831.2</v>
+      </c>
+      <c r="AM22" s="7">
+        <f>AL22-AL19</f>
+        <v>48.599999999976717</v>
+      </c>
     </row>
     <row r="23" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
@@ -2432,40 +2560,101 @@
       <c r="E23" s="6">
         <v>1</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="18"/>
+      <c r="F23" s="15">
+        <v>1.8411090000000001E-6</v>
+      </c>
+      <c r="G23" s="15">
+        <v>8.2842439999999998E-7</v>
+      </c>
+      <c r="H23" s="14">
+        <v>-1.1326570000000001E-6</v>
+      </c>
+      <c r="I23" s="18">
+        <v>4.7492540000000002E-10</v>
+      </c>
+      <c r="J23" s="14">
+        <v>-1.613174E-6</v>
+      </c>
+      <c r="K23" s="18">
+        <v>7.2580929999999998E-10</v>
+      </c>
+      <c r="L23" s="14">
+        <v>-1.743881E-6</v>
+      </c>
+      <c r="M23" s="18">
+        <v>8.3738749999999997E-10</v>
+      </c>
+      <c r="N23" s="14">
+        <v>-2.0133280000000002E-6</v>
+      </c>
+      <c r="O23" s="18">
+        <v>1.1322169999999999E-9</v>
+      </c>
+      <c r="P23" s="14">
+        <v>-2.13643E-6</v>
+      </c>
+      <c r="Q23" s="18">
+        <v>1.095925E-9</v>
+      </c>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="13"/>
+      <c r="T23" s="16">
+        <v>2.5568833303459401E-5</v>
+      </c>
+      <c r="U23" s="7">
+        <v>3.1427298631292698E-2</v>
+      </c>
+      <c r="V23" s="14">
+        <v>3.3639090000000001E-6</v>
+      </c>
+      <c r="W23" s="17">
+        <v>3.0318259999999997E-8</v>
+      </c>
+      <c r="X23" s="13">
+        <v>1.9509350000000002E-6</v>
+      </c>
+      <c r="Y23" s="13">
+        <v>1.784812E-9</v>
+      </c>
+      <c r="Z23" s="13">
+        <v>1.907962E-6</v>
+      </c>
+      <c r="AA23" s="13">
+        <v>1.724434E-9</v>
+      </c>
+      <c r="AB23" s="13">
+        <v>1.9455330000000001E-6</v>
+      </c>
+      <c r="AC23" s="13">
+        <v>1.7473E-9</v>
+      </c>
+      <c r="AD23" s="13">
+        <v>1.9760370000000002E-6</v>
+      </c>
+      <c r="AE23" s="13">
+        <v>1.7987060000000001E-9</v>
+      </c>
+      <c r="AF23" s="13">
+        <v>2.1025339999999999E-6</v>
+      </c>
+      <c r="AG23" s="13">
+        <v>1.865799E-9</v>
+      </c>
       <c r="AH23" s="13"/>
       <c r="AI23" s="13"/>
-      <c r="AJ23" s="12"/>
-      <c r="AK23" s="9"/>
-      <c r="AL23" s="3"/>
-      <c r="AM23" s="7"/>
+      <c r="AJ23" s="12">
+        <v>7.8966409999999995E-162</v>
+      </c>
+      <c r="AK23" s="9">
+        <v>224956.6</v>
+      </c>
+      <c r="AL23" s="3">
+        <v>-449782.4</v>
+      </c>
+      <c r="AM23" s="7">
+        <f>AL23-AL19</f>
+        <v>97.399999999965075</v>
+      </c>
       <c r="AN23" s="6"/>
       <c r="AO23" s="6"/>
       <c r="AQ23" s="6"/>
@@ -2508,15 +2697,21 @@
       <c r="E24" s="6">
         <v>1</v>
       </c>
-      <c r="F24" s="15"/>
+      <c r="F24" s="15">
+        <v>1.418635E-6</v>
+      </c>
       <c r="H24" s="6"/>
       <c r="J24" s="6"/>
       <c r="L24" s="6"/>
       <c r="N24" s="6"/>
       <c r="P24" s="6"/>
-      <c r="T24" s="16"/>
+      <c r="T24" s="16">
+        <v>2.5162389133577101E-5</v>
+      </c>
       <c r="U24" s="11"/>
-      <c r="V24" s="14"/>
+      <c r="V24" s="14">
+        <v>2.7318050000000002E-6</v>
+      </c>
       <c r="W24" s="11"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="6"/>
@@ -2530,9 +2725,16 @@
       <c r="AG24" s="6"/>
       <c r="AH24" s="6"/>
       <c r="AI24" s="6"/>
-      <c r="AK24" s="9"/>
-      <c r="AL24" s="7"/>
-      <c r="AM24" s="7"/>
+      <c r="AK24" s="9">
+        <v>225038.4</v>
+      </c>
+      <c r="AL24" s="7">
+        <v>-450056.7</v>
+      </c>
+      <c r="AM24" s="7">
+        <f>AL24-AL25</f>
+        <v>765.09999999997672</v>
+      </c>
       <c r="AN24" s="15"/>
       <c r="AO24" s="10"/>
       <c r="AQ24" s="10"/>
@@ -2575,16 +2777,36 @@
       <c r="E25" s="6">
         <v>1</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="17"/>
-      <c r="AJ25" s="12"/>
-      <c r="AK25" s="9"/>
-      <c r="AL25" s="7"/>
-      <c r="AM25" s="7"/>
+      <c r="F25" s="15">
+        <v>5.8989810000000005E-7</v>
+      </c>
+      <c r="G25" s="15">
+        <v>8.2881840000000005E-7</v>
+      </c>
+      <c r="T25" s="16">
+        <v>2.4336393711130899E-5</v>
+      </c>
+      <c r="U25" s="7">
+        <v>3.2826589639790703E-2</v>
+      </c>
+      <c r="V25" s="14">
+        <v>2.686813E-6</v>
+      </c>
+      <c r="W25" s="17">
+        <v>2.9522850000000001E-8</v>
+      </c>
+      <c r="AJ25" s="12">
+        <v>1.4406859999999999E-170</v>
+      </c>
+      <c r="AK25" s="9">
+        <v>225426</v>
+      </c>
+      <c r="AL25" s="7">
+        <v>-450821.8</v>
+      </c>
+      <c r="AM25" s="7">
+        <v>0</v>
+      </c>
       <c r="AN25" s="15"/>
       <c r="AO25" s="10"/>
       <c r="AQ25" s="10"/>
@@ -2733,12 +2955,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E46722399A7B5D4590DBCFF250182F33" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="05807d8e6f97dd573643f350d0638d6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="677f5592-671a-486f-9aac-5097e59069f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6fa3647ed1dc35413e65d5d4278d9638" ns3:_="">
     <xsd:import namespace="677f5592-671a-486f-9aac-5097e59069f9"/>
@@ -2908,16 +3139,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EC47B0-AA78-47A5-9B79-6FFFCCC52CA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2933,7 +3163,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F14E613-146B-42BC-87DA-ED927865862D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2949,12 +3179,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>